--- a/作成リスト.xlsx
+++ b/作成リスト.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\卒業制作\UE_Network\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\2年生卒業制作3\UE4NetworkGameProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="モデル" sheetId="2" r:id="rId1"/>
@@ -1752,6 +1752,30 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1761,9 +1785,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1788,27 +1809,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1827,6 +1827,42 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1840,42 +1876,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2160,7 +2160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -2470,8 +2470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2488,13 +2488,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="62" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="69" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="21" t="s">
@@ -2502,25 +2502,25 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="63"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="70"/>
       <c r="F2" s="30" t="str">
         <f>CONCATENATE(COUNTIF(F3:F100,"〇"),"／",COUNTA(E3:E100))</f>
         <v>0／39</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="10" t="str">
         <f>CONCATENATE(G3,$I$3,H3)</f>
         <v>Anim_Game_Power_Neutral</v>
@@ -2541,7 +2541,7 @@
       <c r="B4" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="42"/>
       <c r="E4" s="13" t="str">
         <f t="shared" ref="E4:E41" si="0">CONCATENATE(G4,$I$3,H4)</f>
@@ -2560,7 +2560,7 @@
       <c r="B5" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="55"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="42"/>
       <c r="E5" s="13" t="str">
         <f t="shared" si="0"/>
@@ -2579,7 +2579,7 @@
       <c r="B6" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="55"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="42"/>
       <c r="E6" s="13" t="str">
         <f t="shared" si="0"/>
@@ -2595,11 +2595,11 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="50"/>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="69"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Squat</v>
@@ -2614,11 +2614,11 @@
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="50"/>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="66"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
       <c r="E8" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Squat_Guard</v>
@@ -2633,11 +2633,11 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="50"/>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
       <c r="E9" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Guard</v>
@@ -2652,11 +2652,11 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="50"/>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
       <c r="E10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Guard_Break</v>
@@ -2671,11 +2671,11 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="50"/>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Damage</v>
@@ -2690,11 +2690,11 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="50"/>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
       <c r="E12" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Damage_Meteo</v>
@@ -2709,11 +2709,11 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="50"/>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
       <c r="E13" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Burst</v>
@@ -2728,11 +2728,11 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="50"/>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
       <c r="E14" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Fly</v>
@@ -2747,11 +2747,11 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="50"/>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
       <c r="E15" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Fly_Move</v>
@@ -2766,11 +2766,11 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="50"/>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55"/>
       <c r="E16" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Fly_Guard</v>
@@ -2785,11 +2785,11 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="50"/>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="66"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
       <c r="E17" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_UnStamina</v>
@@ -2804,11 +2804,11 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="50"/>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
       <c r="E18" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Down</v>
@@ -2823,11 +2823,11 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="50"/>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="66"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
       <c r="E19" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Stun</v>
@@ -2842,11 +2842,11 @@
     </row>
     <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="50"/>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="66"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Wake_Up</v>
@@ -2861,11 +2861,11 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="50"/>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="69"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="59"/>
       <c r="E21" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Revival</v>
@@ -2883,10 +2883,10 @@
       <c r="B22" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="66"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Rolling</v>
@@ -2902,10 +2902,10 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="50"/>
       <c r="B23" s="50"/>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="66"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Side_Step_L</v>
@@ -2921,10 +2921,10 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="50"/>
       <c r="B24" s="50"/>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="66"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Side_Step_R</v>
@@ -2940,10 +2940,10 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="50"/>
       <c r="B25" s="51"/>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="66"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Back_Step</v>
@@ -3241,7 +3241,7 @@
       <c r="B40" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="55"/>
+      <c r="C40" s="52"/>
       <c r="D40" s="42"/>
       <c r="E40" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3260,7 +3260,7 @@
       <c r="B41" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="55"/>
+      <c r="C41" s="52"/>
       <c r="D41" s="42"/>
       <c r="E41" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3315,13 +3315,11 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="A3:A39"/>
@@ -3338,6 +3336,13 @@
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
@@ -3346,11 +3351,6 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3363,7 +3363,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3372,21 +3372,21 @@
     <col min="2" max="2" width="8.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.58203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.9140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.58203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.58203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="7.9140625" style="1" customWidth="1"/>
     <col min="9" max="11" width="8.6640625" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="19" t="s">
         <v>135</v>
       </c>
@@ -3401,10 +3401,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="61"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="68"/>
       <c r="E2" s="20" t="s">
         <v>32</v>
       </c>
@@ -3421,14 +3421,14 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="10" t="str">
         <f>CONCATENATE(I3,$E$2,J3)</f>
         <v>Anim_Game_Speed_Neutral</v>
@@ -3451,7 +3451,7 @@
       <c r="B4" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="42"/>
       <c r="E4" s="13" t="str">
         <f t="shared" ref="E4:E41" si="0">CONCATENATE(I4,$E$2,J4)</f>
@@ -3475,7 +3475,7 @@
       <c r="B5" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="55"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="42"/>
       <c r="E5" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3499,7 +3499,7 @@
       <c r="B6" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="55"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="42"/>
       <c r="E6" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3520,11 +3520,11 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="50"/>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="69"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Squat</v>
@@ -3544,11 +3544,11 @@
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="50"/>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="66"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
       <c r="E8" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Squat_Guard</v>
@@ -3568,11 +3568,11 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="50"/>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
       <c r="E9" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Guard</v>
@@ -3592,11 +3592,11 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="50"/>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
       <c r="E10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Guard_Break</v>
@@ -3616,11 +3616,11 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="50"/>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Damage</v>
@@ -3640,11 +3640,11 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="50"/>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
       <c r="E12" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Damage_Meteo</v>
@@ -3664,11 +3664,11 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="50"/>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
       <c r="E13" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Burst</v>
@@ -3688,11 +3688,11 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="50"/>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
       <c r="E14" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Fly</v>
@@ -3712,11 +3712,11 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="50"/>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
       <c r="E15" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Fly_Move</v>
@@ -3736,11 +3736,11 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="50"/>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55"/>
       <c r="E16" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Fly_Guard</v>
@@ -3760,11 +3760,11 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="50"/>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="66"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
       <c r="E17" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_UnStamina</v>
@@ -3784,11 +3784,11 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="50"/>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
       <c r="E18" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Down</v>
@@ -3808,11 +3808,11 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="50"/>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="66"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
       <c r="E19" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Stun</v>
@@ -3832,11 +3832,11 @@
     </row>
     <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="50"/>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="66"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Wake_Up</v>
@@ -3856,11 +3856,11 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="50"/>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="69"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="59"/>
       <c r="E21" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Revival</v>
@@ -3883,10 +3883,10 @@
       <c r="B22" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="66"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Rolling</v>
@@ -3907,10 +3907,10 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="50"/>
       <c r="B23" s="50"/>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="66"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Side_Step_L</v>
@@ -3931,10 +3931,10 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="50"/>
       <c r="B24" s="50"/>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="66"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Side_Step_R</v>
@@ -3955,10 +3955,10 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="50"/>
       <c r="B25" s="51"/>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="66"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Back_Step</v>
@@ -4331,7 +4331,7 @@
       <c r="B40" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="55"/>
+      <c r="C40" s="52"/>
       <c r="D40" s="42"/>
       <c r="E40" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4355,7 +4355,7 @@
       <c r="B41" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="55"/>
+      <c r="C41" s="52"/>
       <c r="D41" s="42"/>
       <c r="E41" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4423,25 +4423,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B26:B39"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="A3:A39"/>
@@ -4458,6 +4439,25 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B26:B39"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C39:D39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4490,12 +4490,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="19" t="s">
         <v>137</v>
       </c>
@@ -4516,10 +4516,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="61"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="68"/>
       <c r="E2" s="20" t="s">
         <v>139</v>
       </c>
@@ -4543,14 +4543,14 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="10" t="str">
         <f t="shared" ref="E3:E41" si="0">CONCATENATE(K3,$E$2,L3)</f>
         <v>Anim_Game_Sword_Neutral</v>
@@ -4578,7 +4578,7 @@
       <c r="B4" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="42"/>
       <c r="E4" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4607,7 +4607,7 @@
       <c r="B5" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="55"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="42"/>
       <c r="E5" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4636,7 +4636,7 @@
       <c r="B6" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="55"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="42"/>
       <c r="E6" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4662,11 +4662,11 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="50"/>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="69"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Squat</v>
@@ -4691,11 +4691,11 @@
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="50"/>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="66"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
       <c r="E8" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Squat_Guard</v>
@@ -4720,11 +4720,11 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="50"/>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
       <c r="E9" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Guard</v>
@@ -4749,11 +4749,11 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="50"/>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
       <c r="E10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Guard_Break</v>
@@ -4778,11 +4778,11 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="50"/>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Damage</v>
@@ -4807,11 +4807,11 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="50"/>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
       <c r="E12" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Damage_Meteo</v>
@@ -4836,11 +4836,11 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="50"/>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
       <c r="E13" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Burst</v>
@@ -4865,11 +4865,11 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="50"/>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
       <c r="E14" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Fly</v>
@@ -4894,11 +4894,11 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="50"/>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
       <c r="E15" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Fly_Move</v>
@@ -4923,11 +4923,11 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="50"/>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55"/>
       <c r="E16" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Fly_Guard</v>
@@ -4952,11 +4952,11 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="50"/>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="66"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
       <c r="E17" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_UnStamina</v>
@@ -4981,11 +4981,11 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="50"/>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
       <c r="E18" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Down</v>
@@ -5010,11 +5010,11 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="50"/>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="66"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
       <c r="E19" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Stun</v>
@@ -5039,11 +5039,11 @@
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="50"/>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="66"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Wake_Up</v>
@@ -5068,11 +5068,11 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="50"/>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="69"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="59"/>
       <c r="E21" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Revival</v>
@@ -5100,10 +5100,10 @@
       <c r="B22" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="66"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Rolling</v>
@@ -5129,10 +5129,10 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="50"/>
       <c r="B23" s="50"/>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="66"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Side_Step_L</v>
@@ -5158,10 +5158,10 @@
     <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="50"/>
       <c r="B24" s="50"/>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="66"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Side_Step_R</v>
@@ -5187,10 +5187,10 @@
     <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="50"/>
       <c r="B25" s="51"/>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="66"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Back_Step</v>
@@ -5638,7 +5638,7 @@
       <c r="B40" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="55"/>
+      <c r="C40" s="52"/>
       <c r="D40" s="42"/>
       <c r="E40" s="13" t="str">
         <f t="shared" si="0"/>
@@ -5667,7 +5667,7 @@
       <c r="B41" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="55"/>
+      <c r="C41" s="52"/>
       <c r="D41" s="42"/>
       <c r="E41" s="13" t="str">
         <f t="shared" si="0"/>
@@ -5748,25 +5748,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="B26:B39"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="A3:A39"/>
     <mergeCell ref="B3:D3"/>
@@ -5783,6 +5764,25 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B26:B39"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5794,7 +5794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -6037,29 +6037,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="77"/>
-      <c r="B1" s="80" t="s">
+      <c r="A1" s="89"/>
+      <c r="B1" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="91" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79" t="s">
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79" t="s">
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
     </row>
     <row r="2" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="78"/>
-      <c r="B2" s="81"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="93"/>
       <c r="C2" s="28" t="s">
         <v>3</v>
       </c>
@@ -6387,131 +6387,143 @@
     </row>
     <row r="12" spans="1:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="13" spans="1:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="82"/>
-      <c r="B13" s="82" t="s">
+      <c r="A13" s="83"/>
+      <c r="B13" s="83" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82" t="s">
+      <c r="C13" s="83"/>
+      <c r="D13" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82" t="s">
+      <c r="E13" s="83"/>
+      <c r="F13" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="G13" s="82"/>
+      <c r="G13" s="83"/>
     </row>
     <row r="14" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="83"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
     </row>
     <row r="15" spans="1:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="B15" s="84">
+      <c r="B15" s="85">
         <v>1</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="86">
+      <c r="C15" s="86"/>
+      <c r="D15" s="87">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E15" s="85"/>
-      <c r="F15" s="86">
+      <c r="E15" s="86"/>
+      <c r="F15" s="87">
         <v>1.3</v>
       </c>
-      <c r="G15" s="87"/>
+      <c r="G15" s="88"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="88">
+      <c r="B16" s="81">
         <v>0.85</v>
       </c>
-      <c r="C16" s="89"/>
-      <c r="D16" s="90">
+      <c r="C16" s="82"/>
+      <c r="D16" s="79">
         <v>0.95</v>
       </c>
-      <c r="E16" s="89"/>
-      <c r="F16" s="90">
+      <c r="E16" s="82"/>
+      <c r="F16" s="79">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G16" s="93"/>
+      <c r="G16" s="80"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="88" t="s">
+      <c r="B17" s="81" t="s">
         <v>149</v>
       </c>
-      <c r="C17" s="89"/>
-      <c r="D17" s="90">
+      <c r="C17" s="82"/>
+      <c r="D17" s="79">
         <v>1.2</v>
       </c>
-      <c r="E17" s="89"/>
-      <c r="F17" s="90">
+      <c r="E17" s="82"/>
+      <c r="F17" s="79">
         <v>1.4</v>
       </c>
-      <c r="G17" s="93"/>
+      <c r="G17" s="80"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="88">
+      <c r="B18" s="81">
         <v>0.75</v>
       </c>
-      <c r="C18" s="89"/>
-      <c r="D18" s="90">
+      <c r="C18" s="82"/>
+      <c r="D18" s="79">
         <v>0.8</v>
       </c>
-      <c r="E18" s="89"/>
-      <c r="F18" s="90">
+      <c r="E18" s="82"/>
+      <c r="F18" s="79">
         <v>0.95</v>
       </c>
-      <c r="G18" s="93"/>
+      <c r="G18" s="80"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="88">
+      <c r="B19" s="81">
         <v>1.25</v>
       </c>
-      <c r="C19" s="89"/>
-      <c r="D19" s="90">
+      <c r="C19" s="82"/>
+      <c r="D19" s="79">
         <v>1.35</v>
       </c>
-      <c r="E19" s="89"/>
-      <c r="F19" s="90">
+      <c r="E19" s="82"/>
+      <c r="F19" s="79">
         <v>1.75</v>
       </c>
-      <c r="G19" s="93"/>
+      <c r="G19" s="80"/>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="91">
+      <c r="B20" s="77">
         <v>3</v>
       </c>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="92"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="78"/>
     </row>
     <row r="21" spans="1:7" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
@@ -6525,18 +6537,6 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="F13:G14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/作成リスト.xlsx
+++ b/作成リスト.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="モデル" sheetId="2" r:id="rId1"/>
@@ -1035,7 +1035,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1589,13 +1589,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1752,9 +1782,42 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1776,39 +1839,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1827,6 +1857,39 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1845,37 +1908,13 @@
     <xf numFmtId="176" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2160,8 +2199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2194,7 +2233,7 @@
         <v>0／12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="50" t="s">
         <v>2</v>
       </c>
@@ -2204,11 +2243,11 @@
       <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="94" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="50"/>
       <c r="B4" s="3" t="s">
         <v>5</v>
@@ -2216,11 +2255,11 @@
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="96" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="51"/>
       <c r="B5" s="3" t="s">
         <v>7</v>
@@ -2228,11 +2267,11 @@
       <c r="C5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="96" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="49" t="s">
         <v>9</v>
       </c>
@@ -2242,11 +2281,11 @@
       <c r="C6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="96" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="50"/>
       <c r="B7" s="3" t="s">
         <v>12</v>
@@ -2254,11 +2293,11 @@
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="96" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="51"/>
       <c r="B8" s="3" t="s">
         <v>158</v>
@@ -2266,11 +2305,11 @@
       <c r="C8" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="96" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="49" t="s">
         <v>14</v>
       </c>
@@ -2280,11 +2319,11 @@
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="96" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="50"/>
       <c r="B10" s="3" t="s">
         <v>17</v>
@@ -2292,7 +2331,7 @@
       <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="96" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2304,7 +2343,7 @@
       <c r="C11" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="96" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2316,7 +2355,7 @@
       <c r="C12" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="95" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2328,7 +2367,7 @@
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="96"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="41" t="s">
@@ -2338,7 +2377,7 @@
       <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="96"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3"/>
@@ -2470,7 +2509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
@@ -2488,13 +2527,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="69" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="62" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="21" t="s">
@@ -2502,25 +2541,25 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="70"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="63"/>
       <c r="F2" s="30" t="str">
         <f>CONCATENATE(COUNTIF(F3:F100,"〇"),"／",COUNTA(E3:E100))</f>
         <v>0／39</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="10" t="str">
         <f>CONCATENATE(G3,$I$3,H3)</f>
         <v>Anim_Game_Power_Neutral</v>
@@ -2541,7 +2580,7 @@
       <c r="B4" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="42"/>
       <c r="E4" s="13" t="str">
         <f t="shared" ref="E4:E41" si="0">CONCATENATE(G4,$I$3,H4)</f>
@@ -2560,7 +2599,7 @@
       <c r="B5" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="52"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="42"/>
       <c r="E5" s="13" t="str">
         <f t="shared" si="0"/>
@@ -2579,7 +2618,7 @@
       <c r="B6" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="52"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="42"/>
       <c r="E6" s="13" t="str">
         <f t="shared" si="0"/>
@@ -2595,11 +2634,11 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="50"/>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="59"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
       <c r="E7" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Squat</v>
@@ -2614,11 +2653,11 @@
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="50"/>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66"/>
       <c r="E8" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Squat_Guard</v>
@@ -2633,11 +2672,11 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="50"/>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="66"/>
       <c r="E9" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Guard</v>
@@ -2652,11 +2691,11 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="50"/>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="66"/>
       <c r="E10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Guard_Break</v>
@@ -2671,11 +2710,11 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="50"/>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="66"/>
       <c r="E11" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Damage</v>
@@ -2690,11 +2729,11 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="50"/>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="66"/>
       <c r="E12" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Damage_Meteo</v>
@@ -2709,11 +2748,11 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="50"/>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
       <c r="E13" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Burst</v>
@@ -2728,11 +2767,11 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="50"/>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="66"/>
       <c r="E14" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Fly</v>
@@ -2747,11 +2786,11 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="50"/>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
       <c r="E15" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Fly_Move</v>
@@ -2766,11 +2805,11 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="50"/>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Fly_Guard</v>
@@ -2785,11 +2824,11 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="50"/>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
       <c r="E17" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_UnStamina</v>
@@ -2804,11 +2843,11 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="50"/>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Down</v>
@@ -2823,11 +2862,11 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="50"/>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Stun</v>
@@ -2842,11 +2881,11 @@
     </row>
     <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="50"/>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="66"/>
       <c r="E20" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Wake_Up</v>
@@ -2861,11 +2900,11 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="50"/>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="59"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="70"/>
       <c r="E21" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Revival</v>
@@ -2883,10 +2922,10 @@
       <c r="B22" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="55"/>
+      <c r="D22" s="66"/>
       <c r="E22" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Rolling</v>
@@ -2902,10 +2941,10 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="50"/>
       <c r="B23" s="50"/>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="55"/>
+      <c r="D23" s="66"/>
       <c r="E23" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Side_Step_L</v>
@@ -2921,10 +2960,10 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="50"/>
       <c r="B24" s="50"/>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="55"/>
+      <c r="D24" s="66"/>
       <c r="E24" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Side_Step_R</v>
@@ -2940,10 +2979,10 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="50"/>
       <c r="B25" s="51"/>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="55"/>
+      <c r="D25" s="66"/>
       <c r="E25" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Back_Step</v>
@@ -3241,7 +3280,7 @@
       <c r="B40" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="52"/>
+      <c r="C40" s="55"/>
       <c r="D40" s="42"/>
       <c r="E40" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3260,7 +3299,7 @@
       <c r="B41" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="52"/>
+      <c r="C41" s="55"/>
       <c r="D41" s="42"/>
       <c r="E41" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3315,11 +3354,21 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="A3:A39"/>
@@ -3336,21 +3385,11 @@
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3363,7 +3402,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3381,12 +3420,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="65"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="19" t="s">
         <v>135</v>
       </c>
@@ -3401,10 +3440,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="68"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="61"/>
       <c r="E2" s="20" t="s">
         <v>32</v>
       </c>
@@ -3421,14 +3460,14 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="10" t="str">
         <f>CONCATENATE(I3,$E$2,J3)</f>
         <v>Anim_Game_Speed_Neutral</v>
@@ -3451,7 +3490,7 @@
       <c r="B4" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="42"/>
       <c r="E4" s="13" t="str">
         <f t="shared" ref="E4:E41" si="0">CONCATENATE(I4,$E$2,J4)</f>
@@ -3475,7 +3514,7 @@
       <c r="B5" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="52"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="42"/>
       <c r="E5" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3499,7 +3538,7 @@
       <c r="B6" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="52"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="42"/>
       <c r="E6" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3520,11 +3559,11 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="50"/>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="59"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
       <c r="E7" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Squat</v>
@@ -3544,11 +3583,11 @@
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="50"/>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66"/>
       <c r="E8" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Squat_Guard</v>
@@ -3568,11 +3607,11 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="50"/>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="66"/>
       <c r="E9" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Guard</v>
@@ -3592,11 +3631,11 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="50"/>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="66"/>
       <c r="E10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Guard_Break</v>
@@ -3616,11 +3655,11 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="50"/>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="66"/>
       <c r="E11" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Damage</v>
@@ -3640,11 +3679,11 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="50"/>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="66"/>
       <c r="E12" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Damage_Meteo</v>
@@ -3664,11 +3703,11 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="50"/>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
       <c r="E13" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Burst</v>
@@ -3688,11 +3727,11 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="50"/>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="66"/>
       <c r="E14" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Fly</v>
@@ -3712,11 +3751,11 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="50"/>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
       <c r="E15" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Fly_Move</v>
@@ -3736,11 +3775,11 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="50"/>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Fly_Guard</v>
@@ -3760,11 +3799,11 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="50"/>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
       <c r="E17" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_UnStamina</v>
@@ -3784,11 +3823,11 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="50"/>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Down</v>
@@ -3808,11 +3847,11 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="50"/>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Stun</v>
@@ -3832,11 +3871,11 @@
     </row>
     <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="50"/>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="66"/>
       <c r="E20" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Wake_Up</v>
@@ -3856,11 +3895,11 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="50"/>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="59"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="70"/>
       <c r="E21" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Revival</v>
@@ -3883,10 +3922,10 @@
       <c r="B22" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="55"/>
+      <c r="D22" s="66"/>
       <c r="E22" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Rolling</v>
@@ -3907,10 +3946,10 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="50"/>
       <c r="B23" s="50"/>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="55"/>
+      <c r="D23" s="66"/>
       <c r="E23" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Side_Step_L</v>
@@ -3931,10 +3970,10 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="50"/>
       <c r="B24" s="50"/>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="55"/>
+      <c r="D24" s="66"/>
       <c r="E24" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Side_Step_R</v>
@@ -3955,10 +3994,10 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="50"/>
       <c r="B25" s="51"/>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="55"/>
+      <c r="D25" s="66"/>
       <c r="E25" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Back_Step</v>
@@ -4331,7 +4370,7 @@
       <c r="B40" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="52"/>
+      <c r="C40" s="55"/>
       <c r="D40" s="42"/>
       <c r="E40" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4355,7 +4394,7 @@
       <c r="B41" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="52"/>
+      <c r="C41" s="55"/>
       <c r="D41" s="42"/>
       <c r="E41" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4423,6 +4462,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B26:B39"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="A3:A39"/>
@@ -4439,25 +4497,6 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B26:B39"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C39:D39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4490,12 +4529,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="65"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="19" t="s">
         <v>137</v>
       </c>
@@ -4516,10 +4555,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="68"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="61"/>
       <c r="E2" s="20" t="s">
         <v>139</v>
       </c>
@@ -4543,14 +4582,14 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="10" t="str">
         <f t="shared" ref="E3:E41" si="0">CONCATENATE(K3,$E$2,L3)</f>
         <v>Anim_Game_Sword_Neutral</v>
@@ -4578,7 +4617,7 @@
       <c r="B4" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="42"/>
       <c r="E4" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4607,7 +4646,7 @@
       <c r="B5" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="52"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="42"/>
       <c r="E5" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4636,7 +4675,7 @@
       <c r="B6" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="52"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="42"/>
       <c r="E6" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4662,11 +4701,11 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="50"/>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="59"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
       <c r="E7" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Squat</v>
@@ -4691,11 +4730,11 @@
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="50"/>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66"/>
       <c r="E8" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Squat_Guard</v>
@@ -4720,11 +4759,11 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="50"/>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="66"/>
       <c r="E9" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Guard</v>
@@ -4749,11 +4788,11 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="50"/>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="66"/>
       <c r="E10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Guard_Break</v>
@@ -4778,11 +4817,11 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="50"/>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="66"/>
       <c r="E11" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Damage</v>
@@ -4807,11 +4846,11 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="50"/>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="66"/>
       <c r="E12" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Damage_Meteo</v>
@@ -4836,11 +4875,11 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="50"/>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
       <c r="E13" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Burst</v>
@@ -4865,11 +4904,11 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="50"/>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="66"/>
       <c r="E14" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Fly</v>
@@ -4894,11 +4933,11 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="50"/>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
       <c r="E15" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Fly_Move</v>
@@ -4923,11 +4962,11 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="50"/>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Fly_Guard</v>
@@ -4952,11 +4991,11 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="50"/>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
       <c r="E17" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_UnStamina</v>
@@ -4981,11 +5020,11 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="50"/>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Down</v>
@@ -5010,11 +5049,11 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="50"/>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Stun</v>
@@ -5039,11 +5078,11 @@
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="50"/>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="66"/>
       <c r="E20" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Wake_Up</v>
@@ -5068,11 +5107,11 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="50"/>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="59"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="70"/>
       <c r="E21" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Revival</v>
@@ -5100,10 +5139,10 @@
       <c r="B22" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="55"/>
+      <c r="D22" s="66"/>
       <c r="E22" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Rolling</v>
@@ -5129,10 +5168,10 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="50"/>
       <c r="B23" s="50"/>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="55"/>
+      <c r="D23" s="66"/>
       <c r="E23" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Side_Step_L</v>
@@ -5158,10 +5197,10 @@
     <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="50"/>
       <c r="B24" s="50"/>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="55"/>
+      <c r="D24" s="66"/>
       <c r="E24" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Side_Step_R</v>
@@ -5187,10 +5226,10 @@
     <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="50"/>
       <c r="B25" s="51"/>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="55"/>
+      <c r="D25" s="66"/>
       <c r="E25" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Back_Step</v>
@@ -5638,7 +5677,7 @@
       <c r="B40" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="52"/>
+      <c r="C40" s="55"/>
       <c r="D40" s="42"/>
       <c r="E40" s="13" t="str">
         <f t="shared" si="0"/>
@@ -5667,7 +5706,7 @@
       <c r="B41" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="52"/>
+      <c r="C41" s="55"/>
       <c r="D41" s="42"/>
       <c r="E41" s="13" t="str">
         <f t="shared" si="0"/>
@@ -5748,6 +5787,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B26:B39"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="A3:A39"/>
     <mergeCell ref="B3:D3"/>
@@ -5764,25 +5822,6 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="B26:B39"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6037,29 +6076,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="89"/>
-      <c r="B1" s="92" t="s">
+      <c r="A1" s="77"/>
+      <c r="B1" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91" t="s">
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91" t="s">
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
     </row>
     <row r="2" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="90"/>
-      <c r="B2" s="93"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="81"/>
       <c r="C2" s="28" t="s">
         <v>3</v>
       </c>
@@ -6387,143 +6426,131 @@
     </row>
     <row r="12" spans="1:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="13" spans="1:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="83"/>
-      <c r="B13" s="83" t="s">
+      <c r="A13" s="82"/>
+      <c r="B13" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83" t="s">
+      <c r="C13" s="82"/>
+      <c r="D13" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83" t="s">
+      <c r="E13" s="82"/>
+      <c r="F13" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="G13" s="83"/>
+      <c r="G13" s="82"/>
     </row>
     <row r="14" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="84"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
     </row>
     <row r="15" spans="1:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="B15" s="85">
+      <c r="B15" s="84">
         <v>1</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="87">
+      <c r="C15" s="85"/>
+      <c r="D15" s="86">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E15" s="86"/>
-      <c r="F15" s="87">
+      <c r="E15" s="85"/>
+      <c r="F15" s="86">
         <v>1.3</v>
       </c>
-      <c r="G15" s="88"/>
+      <c r="G15" s="87"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="81">
+      <c r="B16" s="92">
         <v>0.85</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="79">
+      <c r="C16" s="93"/>
+      <c r="D16" s="90">
         <v>0.95</v>
       </c>
-      <c r="E16" s="82"/>
-      <c r="F16" s="79">
+      <c r="E16" s="93"/>
+      <c r="F16" s="90">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G16" s="80"/>
+      <c r="G16" s="91"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="79">
+      <c r="C17" s="93"/>
+      <c r="D17" s="90">
         <v>1.2</v>
       </c>
-      <c r="E17" s="82"/>
-      <c r="F17" s="79">
+      <c r="E17" s="93"/>
+      <c r="F17" s="90">
         <v>1.4</v>
       </c>
-      <c r="G17" s="80"/>
+      <c r="G17" s="91"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="81">
+      <c r="B18" s="92">
         <v>0.75</v>
       </c>
-      <c r="C18" s="82"/>
-      <c r="D18" s="79">
+      <c r="C18" s="93"/>
+      <c r="D18" s="90">
         <v>0.8</v>
       </c>
-      <c r="E18" s="82"/>
-      <c r="F18" s="79">
+      <c r="E18" s="93"/>
+      <c r="F18" s="90">
         <v>0.95</v>
       </c>
-      <c r="G18" s="80"/>
+      <c r="G18" s="91"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="81">
+      <c r="B19" s="92">
         <v>1.25</v>
       </c>
-      <c r="C19" s="82"/>
-      <c r="D19" s="79">
+      <c r="C19" s="93"/>
+      <c r="D19" s="90">
         <v>1.35</v>
       </c>
-      <c r="E19" s="82"/>
-      <c r="F19" s="79">
+      <c r="E19" s="93"/>
+      <c r="F19" s="90">
         <v>1.75</v>
       </c>
-      <c r="G19" s="80"/>
+      <c r="G19" s="91"/>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="77">
+      <c r="B20" s="88">
         <v>3</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="78"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="89"/>
     </row>
     <row r="21" spans="1:7" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="F13:G14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
@@ -6537,6 +6564,18 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/作成リスト.xlsx
+++ b/作成リスト.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="161">
   <si>
     <t>モデル</t>
     <phoneticPr fontId="1"/>
@@ -922,6 +922,10 @@
   </si>
   <si>
     <t>Player_Sardine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1749,6 +1753,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1782,6 +1795,30 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1791,9 +1828,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1818,27 +1852,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1857,6 +1870,42 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1870,51 +1919,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2200,7 +2204,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2213,11 +2217,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="47" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="50" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="17" t="s">
@@ -2225,16 +2229,16 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="48"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="18" t="str">
         <f>CONCATENATE(COUNTIF(D3:D100,"〇"),"／",COUNTA(C3:C100))</f>
-        <v>0／12</v>
+        <v>1／12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="53" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2243,36 +2247,36 @@
       <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="94" t="s">
+      <c r="D3" s="41" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="50"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="96" t="s">
+      <c r="D4" s="43" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="51"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="96" t="s">
+      <c r="D5" s="43" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="52" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2281,36 +2285,36 @@
       <c r="C6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="96" t="s">
+      <c r="D6" s="43" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="50"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="43" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="51"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="3" t="s">
         <v>158</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="43" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="52" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2319,65 +2323,67 @@
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="96" t="s">
+      <c r="D9" s="43" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="50"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="96" t="s">
+      <c r="D10" s="43" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="51"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="3" t="s">
         <v>157</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D11" s="96" t="s">
+      <c r="D11" s="43" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="42"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D12" s="95" t="s">
+      <c r="D12" s="42" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="42"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="96"/>
+      <c r="D13" s="43" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="42"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="96"/>
+      <c r="D14" s="43"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3"/>
@@ -2527,13 +2533,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="62" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="72" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="21" t="s">
@@ -2541,25 +2547,25 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="63"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="73"/>
       <c r="F2" s="30" t="str">
         <f>CONCATENATE(COUNTIF(F3:F100,"〇"),"／",COUNTA(E3:E100))</f>
         <v>0／39</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="10" t="str">
         <f>CONCATENATE(G3,$I$3,H3)</f>
         <v>Anim_Game_Power_Neutral</v>
@@ -2576,12 +2582,12 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="50"/>
-      <c r="B4" s="41" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="44" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="55"/>
-      <c r="D4" s="42"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="13" t="str">
         <f t="shared" ref="E4:E41" si="0">CONCATENATE(G4,$I$3,H4)</f>
         <v>Anim_Game_Power_Move</v>
@@ -2595,12 +2601,12 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="50"/>
-      <c r="B5" s="41" t="s">
+      <c r="A5" s="53"/>
+      <c r="B5" s="44" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="55"/>
-      <c r="D5" s="42"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Jump</v>
@@ -2614,12 +2620,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="50"/>
-      <c r="B6" s="41" t="s">
+      <c r="A6" s="53"/>
+      <c r="B6" s="44" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="55"/>
-      <c r="D6" s="42"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Fall</v>
@@ -2633,12 +2639,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="50"/>
-      <c r="B7" s="68" t="s">
+      <c r="A7" s="53"/>
+      <c r="B7" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="61"/>
       <c r="E7" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Squat</v>
@@ -2652,12 +2658,12 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="50"/>
-      <c r="B8" s="64" t="s">
+      <c r="A8" s="53"/>
+      <c r="B8" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="66"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Squat_Guard</v>
@@ -2671,12 +2677,12 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="50"/>
-      <c r="B9" s="64" t="s">
+      <c r="A9" s="53"/>
+      <c r="B9" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
       <c r="E9" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Guard</v>
@@ -2690,12 +2696,12 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="50"/>
-      <c r="B10" s="64" t="s">
+      <c r="A10" s="53"/>
+      <c r="B10" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Guard_Break</v>
@@ -2709,12 +2715,12 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="50"/>
-      <c r="B11" s="64" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
       <c r="E11" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Damage</v>
@@ -2728,12 +2734,12 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="50"/>
-      <c r="B12" s="64" t="s">
+      <c r="A12" s="53"/>
+      <c r="B12" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
       <c r="E12" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Damage_Meteo</v>
@@ -2747,12 +2753,12 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="50"/>
-      <c r="B13" s="64" t="s">
+      <c r="A13" s="53"/>
+      <c r="B13" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
       <c r="E13" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Burst</v>
@@ -2766,12 +2772,12 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="50"/>
-      <c r="B14" s="64" t="s">
+      <c r="A14" s="53"/>
+      <c r="B14" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
       <c r="E14" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Fly</v>
@@ -2785,12 +2791,12 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="50"/>
-      <c r="B15" s="64" t="s">
+      <c r="A15" s="53"/>
+      <c r="B15" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
       <c r="E15" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Fly_Move</v>
@@ -2804,12 +2810,12 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="50"/>
-      <c r="B16" s="64" t="s">
+      <c r="A16" s="53"/>
+      <c r="B16" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Fly_Guard</v>
@@ -2823,12 +2829,12 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="50"/>
-      <c r="B17" s="64" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="66"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_UnStamina</v>
@@ -2842,12 +2848,12 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="50"/>
-      <c r="B18" s="64" t="s">
+      <c r="A18" s="53"/>
+      <c r="B18" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
       <c r="E18" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Down</v>
@@ -2861,12 +2867,12 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="50"/>
-      <c r="B19" s="64" t="s">
+      <c r="A19" s="53"/>
+      <c r="B19" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="66"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Stun</v>
@@ -2880,12 +2886,12 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="50"/>
-      <c r="B20" s="64" t="s">
+      <c r="A20" s="53"/>
+      <c r="B20" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="66"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
       <c r="E20" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Wake_Up</v>
@@ -2899,12 +2905,12 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="50"/>
-      <c r="B21" s="68" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="70"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Revival</v>
@@ -2918,14 +2924,14 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="50"/>
-      <c r="B22" s="49" t="s">
+      <c r="A22" s="53"/>
+      <c r="B22" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="66"/>
+      <c r="D22" s="58"/>
       <c r="E22" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Rolling</v>
@@ -2939,12 +2945,12 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="64" t="s">
+      <c r="A23" s="53"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="66"/>
+      <c r="D23" s="58"/>
       <c r="E23" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Side_Step_L</v>
@@ -2958,12 +2964,12 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="64" t="s">
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="66"/>
+      <c r="D24" s="58"/>
       <c r="E24" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Side_Step_R</v>
@@ -2977,12 +2983,12 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="50"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="64" t="s">
+      <c r="A25" s="53"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="66"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Back_Step</v>
@@ -2996,11 +3002,11 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="50"/>
-      <c r="B26" s="49" t="s">
+      <c r="A26" s="53"/>
+      <c r="B26" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="52" t="s">
         <v>79</v>
       </c>
       <c r="D26" s="16" t="s">
@@ -3019,9 +3025,9 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="16" t="s">
         <v>81</v>
       </c>
@@ -3038,9 +3044,9 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="16" t="s">
         <v>82</v>
       </c>
@@ -3057,9 +3063,9 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="49" t="s">
+      <c r="A29" s="53"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="52" t="s">
         <v>83</v>
       </c>
       <c r="D29" s="16" t="s">
@@ -3078,9 +3084,9 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
       <c r="D30" s="16" t="s">
         <v>81</v>
       </c>
@@ -3097,9 +3103,9 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="16" t="s">
         <v>82</v>
       </c>
@@ -3116,9 +3122,9 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="49" t="s">
+      <c r="A32" s="53"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="52" t="s">
         <v>84</v>
       </c>
       <c r="D32" s="16" t="s">
@@ -3137,9 +3143,9 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
       <c r="D33" s="16" t="s">
         <v>81</v>
       </c>
@@ -3156,9 +3162,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="50"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="51"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="16" t="s">
         <v>82</v>
       </c>
@@ -3175,9 +3181,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="50"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="49" t="s">
+      <c r="A35" s="53"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="52" t="s">
         <v>33</v>
       </c>
       <c r="D35" s="16" t="s">
@@ -3196,9 +3202,9 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="50"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
       <c r="D36" s="16" t="s">
         <v>81</v>
       </c>
@@ -3215,9 +3221,9 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="50"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="51"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="54"/>
       <c r="D37" s="16" t="s">
         <v>82</v>
       </c>
@@ -3234,8 +3240,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="50"/>
-      <c r="B38" s="50"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="53"/>
       <c r="C38" s="3" t="s">
         <v>85</v>
       </c>
@@ -3255,12 +3261,12 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="51"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="41" t="s">
+      <c r="A39" s="54"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="42"/>
+      <c r="D39" s="45"/>
       <c r="E39" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Power_Attack_Special</v>
@@ -3274,14 +3280,14 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="44" t="s">
         <v>102</v>
       </c>
       <c r="C40" s="55"/>
-      <c r="D40" s="42"/>
+      <c r="D40" s="45"/>
       <c r="E40" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Result_Power_Win</v>
@@ -3295,12 +3301,12 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="51"/>
-      <c r="B41" s="41" t="s">
+      <c r="A41" s="54"/>
+      <c r="B41" s="44" t="s">
         <v>103</v>
       </c>
       <c r="C41" s="55"/>
-      <c r="D41" s="42"/>
+      <c r="D41" s="45"/>
       <c r="E41" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Result_Power_Lose</v>
@@ -3354,21 +3360,11 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="A3:A39"/>
@@ -3385,11 +3381,21 @@
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3420,12 +3426,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="68"/>
       <c r="E1" s="19" t="s">
         <v>135</v>
       </c>
@@ -3440,10 +3446,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="61"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="20" t="s">
         <v>32</v>
       </c>
@@ -3460,14 +3466,14 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="10" t="str">
         <f>CONCATENATE(I3,$E$2,J3)</f>
         <v>Anim_Game_Speed_Neutral</v>
@@ -3486,12 +3492,12 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="50"/>
-      <c r="B4" s="41" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="44" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="55"/>
-      <c r="D4" s="42"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="13" t="str">
         <f t="shared" ref="E4:E41" si="0">CONCATENATE(I4,$E$2,J4)</f>
         <v>Anim_Game_Speed_Move</v>
@@ -3510,12 +3516,12 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="50"/>
-      <c r="B5" s="41" t="s">
+      <c r="A5" s="53"/>
+      <c r="B5" s="44" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="55"/>
-      <c r="D5" s="42"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Jump</v>
@@ -3534,12 +3540,12 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="50"/>
-      <c r="B6" s="41" t="s">
+      <c r="A6" s="53"/>
+      <c r="B6" s="44" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="55"/>
-      <c r="D6" s="42"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Fall</v>
@@ -3558,12 +3564,12 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="50"/>
-      <c r="B7" s="68" t="s">
+      <c r="A7" s="53"/>
+      <c r="B7" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="61"/>
       <c r="E7" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Squat</v>
@@ -3582,12 +3588,12 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="50"/>
-      <c r="B8" s="64" t="s">
+      <c r="A8" s="53"/>
+      <c r="B8" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="66"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Squat_Guard</v>
@@ -3606,12 +3612,12 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="50"/>
-      <c r="B9" s="64" t="s">
+      <c r="A9" s="53"/>
+      <c r="B9" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
       <c r="E9" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Guard</v>
@@ -3630,12 +3636,12 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="50"/>
-      <c r="B10" s="64" t="s">
+      <c r="A10" s="53"/>
+      <c r="B10" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Guard_Break</v>
@@ -3654,12 +3660,12 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="50"/>
-      <c r="B11" s="64" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
       <c r="E11" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Damage</v>
@@ -3678,12 +3684,12 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="50"/>
-      <c r="B12" s="64" t="s">
+      <c r="A12" s="53"/>
+      <c r="B12" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
       <c r="E12" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Damage_Meteo</v>
@@ -3702,12 +3708,12 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="50"/>
-      <c r="B13" s="64" t="s">
+      <c r="A13" s="53"/>
+      <c r="B13" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
       <c r="E13" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Burst</v>
@@ -3726,12 +3732,12 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="50"/>
-      <c r="B14" s="64" t="s">
+      <c r="A14" s="53"/>
+      <c r="B14" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
       <c r="E14" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Fly</v>
@@ -3750,12 +3756,12 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="50"/>
-      <c r="B15" s="64" t="s">
+      <c r="A15" s="53"/>
+      <c r="B15" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
       <c r="E15" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Fly_Move</v>
@@ -3774,12 +3780,12 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="50"/>
-      <c r="B16" s="64" t="s">
+      <c r="A16" s="53"/>
+      <c r="B16" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Fly_Guard</v>
@@ -3798,12 +3804,12 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="50"/>
-      <c r="B17" s="64" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="66"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_UnStamina</v>
@@ -3822,12 +3828,12 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="50"/>
-      <c r="B18" s="64" t="s">
+      <c r="A18" s="53"/>
+      <c r="B18" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
       <c r="E18" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Down</v>
@@ -3846,12 +3852,12 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="50"/>
-      <c r="B19" s="64" t="s">
+      <c r="A19" s="53"/>
+      <c r="B19" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="66"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Stun</v>
@@ -3870,12 +3876,12 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="50"/>
-      <c r="B20" s="64" t="s">
+      <c r="A20" s="53"/>
+      <c r="B20" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="66"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
       <c r="E20" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Wake_Up</v>
@@ -3894,12 +3900,12 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="50"/>
-      <c r="B21" s="68" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="70"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Revival</v>
@@ -3918,14 +3924,14 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="50"/>
-      <c r="B22" s="49" t="s">
+      <c r="A22" s="53"/>
+      <c r="B22" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="66"/>
+      <c r="D22" s="58"/>
       <c r="E22" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Rolling</v>
@@ -3944,12 +3950,12 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="64" t="s">
+      <c r="A23" s="53"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="66"/>
+      <c r="D23" s="58"/>
       <c r="E23" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Side_Step_L</v>
@@ -3968,12 +3974,12 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="64" t="s">
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="66"/>
+      <c r="D24" s="58"/>
       <c r="E24" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Side_Step_R</v>
@@ -3992,12 +3998,12 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="50"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="64" t="s">
+      <c r="A25" s="53"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="66"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Back_Step</v>
@@ -4016,11 +4022,11 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="50"/>
-      <c r="B26" s="49" t="s">
+      <c r="A26" s="53"/>
+      <c r="B26" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="52" t="s">
         <v>79</v>
       </c>
       <c r="D26" s="16" t="s">
@@ -4044,9 +4050,9 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="16" t="s">
         <v>81</v>
       </c>
@@ -4068,9 +4074,9 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="16" t="s">
         <v>82</v>
       </c>
@@ -4092,9 +4098,9 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="49" t="s">
+      <c r="A29" s="53"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="52" t="s">
         <v>83</v>
       </c>
       <c r="D29" s="16" t="s">
@@ -4118,9 +4124,9 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
       <c r="D30" s="16" t="s">
         <v>81</v>
       </c>
@@ -4142,9 +4148,9 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="16" t="s">
         <v>82</v>
       </c>
@@ -4166,9 +4172,9 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="49" t="s">
+      <c r="A32" s="53"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="52" t="s">
         <v>84</v>
       </c>
       <c r="D32" s="16" t="s">
@@ -4192,9 +4198,9 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
       <c r="D33" s="16" t="s">
         <v>81</v>
       </c>
@@ -4216,9 +4222,9 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="50"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="51"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="16" t="s">
         <v>82</v>
       </c>
@@ -4240,9 +4246,9 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="50"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="49" t="s">
+      <c r="A35" s="53"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="52" t="s">
         <v>33</v>
       </c>
       <c r="D35" s="16" t="s">
@@ -4266,9 +4272,9 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="50"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
       <c r="D36" s="16" t="s">
         <v>81</v>
       </c>
@@ -4290,9 +4296,9 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="50"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="51"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="54"/>
       <c r="D37" s="16" t="s">
         <v>82</v>
       </c>
@@ -4314,8 +4320,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="50"/>
-      <c r="B38" s="50"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="53"/>
       <c r="C38" s="3" t="s">
         <v>85</v>
       </c>
@@ -4340,12 +4346,12 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="51"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="41" t="s">
+      <c r="A39" s="54"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="42"/>
+      <c r="D39" s="45"/>
       <c r="E39" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Speed_Attack_Special</v>
@@ -4364,14 +4370,14 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="44" t="s">
         <v>102</v>
       </c>
       <c r="C40" s="55"/>
-      <c r="D40" s="42"/>
+      <c r="D40" s="45"/>
       <c r="E40" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Result_Speed_Win</v>
@@ -4390,12 +4396,12 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="51"/>
-      <c r="B41" s="41" t="s">
+      <c r="A41" s="54"/>
+      <c r="B41" s="44" t="s">
         <v>103</v>
       </c>
       <c r="C41" s="55"/>
-      <c r="D41" s="42"/>
+      <c r="D41" s="45"/>
       <c r="E41" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Result_Speed_Lose</v>
@@ -4462,25 +4468,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B26:B39"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="A3:A39"/>
@@ -4497,6 +4484,25 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B26:B39"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C39:D39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4529,12 +4535,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="68"/>
       <c r="E1" s="19" t="s">
         <v>137</v>
       </c>
@@ -4555,10 +4561,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="61"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="20" t="s">
         <v>139</v>
       </c>
@@ -4582,14 +4588,14 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="10" t="str">
         <f t="shared" ref="E3:E41" si="0">CONCATENATE(K3,$E$2,L3)</f>
         <v>Anim_Game_Sword_Neutral</v>
@@ -4613,12 +4619,12 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="50"/>
-      <c r="B4" s="41" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="44" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="55"/>
-      <c r="D4" s="42"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Move</v>
@@ -4642,12 +4648,12 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="50"/>
-      <c r="B5" s="41" t="s">
+      <c r="A5" s="53"/>
+      <c r="B5" s="44" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="55"/>
-      <c r="D5" s="42"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Jump</v>
@@ -4671,12 +4677,12 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="50"/>
-      <c r="B6" s="41" t="s">
+      <c r="A6" s="53"/>
+      <c r="B6" s="44" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="55"/>
-      <c r="D6" s="42"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Fall</v>
@@ -4700,12 +4706,12 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="50"/>
-      <c r="B7" s="68" t="s">
+      <c r="A7" s="53"/>
+      <c r="B7" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="61"/>
       <c r="E7" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Squat</v>
@@ -4729,12 +4735,12 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="50"/>
-      <c r="B8" s="64" t="s">
+      <c r="A8" s="53"/>
+      <c r="B8" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="66"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Squat_Guard</v>
@@ -4758,12 +4764,12 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="50"/>
-      <c r="B9" s="64" t="s">
+      <c r="A9" s="53"/>
+      <c r="B9" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
       <c r="E9" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Guard</v>
@@ -4787,12 +4793,12 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="50"/>
-      <c r="B10" s="64" t="s">
+      <c r="A10" s="53"/>
+      <c r="B10" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Guard_Break</v>
@@ -4816,12 +4822,12 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="50"/>
-      <c r="B11" s="64" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
       <c r="E11" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Damage</v>
@@ -4845,12 +4851,12 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="50"/>
-      <c r="B12" s="64" t="s">
+      <c r="A12" s="53"/>
+      <c r="B12" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
       <c r="E12" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Damage_Meteo</v>
@@ -4874,12 +4880,12 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="50"/>
-      <c r="B13" s="64" t="s">
+      <c r="A13" s="53"/>
+      <c r="B13" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
       <c r="E13" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Burst</v>
@@ -4903,12 +4909,12 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="50"/>
-      <c r="B14" s="64" t="s">
+      <c r="A14" s="53"/>
+      <c r="B14" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
       <c r="E14" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Fly</v>
@@ -4932,12 +4938,12 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="50"/>
-      <c r="B15" s="64" t="s">
+      <c r="A15" s="53"/>
+      <c r="B15" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
       <c r="E15" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Fly_Move</v>
@@ -4961,12 +4967,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="50"/>
-      <c r="B16" s="64" t="s">
+      <c r="A16" s="53"/>
+      <c r="B16" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Fly_Guard</v>
@@ -4990,12 +4996,12 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="50"/>
-      <c r="B17" s="64" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="66"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_UnStamina</v>
@@ -5019,12 +5025,12 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="50"/>
-      <c r="B18" s="64" t="s">
+      <c r="A18" s="53"/>
+      <c r="B18" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
       <c r="E18" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Down</v>
@@ -5048,12 +5054,12 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="50"/>
-      <c r="B19" s="64" t="s">
+      <c r="A19" s="53"/>
+      <c r="B19" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="66"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Stun</v>
@@ -5077,12 +5083,12 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="50"/>
-      <c r="B20" s="64" t="s">
+      <c r="A20" s="53"/>
+      <c r="B20" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="66"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
       <c r="E20" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Wake_Up</v>
@@ -5106,12 +5112,12 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="50"/>
-      <c r="B21" s="68" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="70"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Revival</v>
@@ -5135,14 +5141,14 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="50"/>
-      <c r="B22" s="49" t="s">
+      <c r="A22" s="53"/>
+      <c r="B22" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="66"/>
+      <c r="D22" s="58"/>
       <c r="E22" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Rolling</v>
@@ -5166,12 +5172,12 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="64" t="s">
+      <c r="A23" s="53"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="66"/>
+      <c r="D23" s="58"/>
       <c r="E23" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Side_Step_L</v>
@@ -5195,12 +5201,12 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="64" t="s">
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="66"/>
+      <c r="D24" s="58"/>
       <c r="E24" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Side_Step_R</v>
@@ -5224,12 +5230,12 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="50"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="64" t="s">
+      <c r="A25" s="53"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="66"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Back_Step</v>
@@ -5253,11 +5259,11 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="50"/>
-      <c r="B26" s="49" t="s">
+      <c r="A26" s="53"/>
+      <c r="B26" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="52" t="s">
         <v>79</v>
       </c>
       <c r="D26" s="16" t="s">
@@ -5286,9 +5292,9 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="16" t="s">
         <v>81</v>
       </c>
@@ -5315,9 +5321,9 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="16" t="s">
         <v>82</v>
       </c>
@@ -5344,9 +5350,9 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="49" t="s">
+      <c r="A29" s="53"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="52" t="s">
         <v>83</v>
       </c>
       <c r="D29" s="16" t="s">
@@ -5375,9 +5381,9 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
       <c r="D30" s="16" t="s">
         <v>81</v>
       </c>
@@ -5404,9 +5410,9 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="16" t="s">
         <v>82</v>
       </c>
@@ -5433,9 +5439,9 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="49" t="s">
+      <c r="A32" s="53"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="52" t="s">
         <v>84</v>
       </c>
       <c r="D32" s="16" t="s">
@@ -5464,9 +5470,9 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
       <c r="D33" s="16" t="s">
         <v>81</v>
       </c>
@@ -5493,9 +5499,9 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="50"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="51"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="16" t="s">
         <v>82</v>
       </c>
@@ -5522,9 +5528,9 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="50"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="49" t="s">
+      <c r="A35" s="53"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="52" t="s">
         <v>33</v>
       </c>
       <c r="D35" s="16" t="s">
@@ -5553,9 +5559,9 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="50"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
       <c r="D36" s="16" t="s">
         <v>81</v>
       </c>
@@ -5582,9 +5588,9 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="50"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="51"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="54"/>
       <c r="D37" s="16" t="s">
         <v>82</v>
       </c>
@@ -5611,8 +5617,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="50"/>
-      <c r="B38" s="50"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="53"/>
       <c r="C38" s="3" t="s">
         <v>85</v>
       </c>
@@ -5642,12 +5648,12 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="51"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="41" t="s">
+      <c r="A39" s="54"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="42"/>
+      <c r="D39" s="45"/>
       <c r="E39" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Game_Sword_Attack_Special</v>
@@ -5671,14 +5677,14 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="44" t="s">
         <v>102</v>
       </c>
       <c r="C40" s="55"/>
-      <c r="D40" s="42"/>
+      <c r="D40" s="45"/>
       <c r="E40" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Result_Sword_Win</v>
@@ -5702,12 +5708,12 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="51"/>
-      <c r="B41" s="41" t="s">
+      <c r="A41" s="54"/>
+      <c r="B41" s="44" t="s">
         <v>103</v>
       </c>
       <c r="C41" s="55"/>
-      <c r="D41" s="42"/>
+      <c r="D41" s="45"/>
       <c r="E41" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Anim_Result_Sword_Lose</v>
@@ -5787,25 +5793,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="B26:B39"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="A3:A39"/>
     <mergeCell ref="B3:D3"/>
@@ -5822,6 +5809,25 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B26:B39"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5847,11 +5853,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="75" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="78" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="26" t="s">
@@ -5859,9 +5865,9 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="76"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="79"/>
       <c r="D2" s="27" t="str">
         <f>CONCATENATE(COUNTIF(D3:D100,"〇"),"／",COUNTA(C3:C100))</f>
         <v>0／0</v>
@@ -6076,29 +6082,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="77"/>
-      <c r="B1" s="80" t="s">
+      <c r="A1" s="92"/>
+      <c r="B1" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79" t="s">
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79" t="s">
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
     </row>
     <row r="2" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="78"/>
-      <c r="B2" s="81"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="96"/>
       <c r="C2" s="28" t="s">
         <v>3</v>
       </c>
@@ -6426,131 +6432,143 @@
     </row>
     <row r="12" spans="1:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="13" spans="1:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="82"/>
-      <c r="B13" s="82" t="s">
+      <c r="A13" s="86"/>
+      <c r="B13" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82" t="s">
+      <c r="C13" s="86"/>
+      <c r="D13" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82" t="s">
+      <c r="E13" s="86"/>
+      <c r="F13" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="G13" s="82"/>
+      <c r="G13" s="86"/>
     </row>
     <row r="14" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="83"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
+      <c r="A14" s="87"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
     </row>
     <row r="15" spans="1:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="B15" s="84">
+      <c r="B15" s="88">
         <v>1</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="86">
+      <c r="C15" s="89"/>
+      <c r="D15" s="90">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E15" s="85"/>
-      <c r="F15" s="86">
+      <c r="E15" s="89"/>
+      <c r="F15" s="90">
         <v>1.3</v>
       </c>
-      <c r="G15" s="87"/>
+      <c r="G15" s="91"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="92">
+      <c r="B16" s="84">
         <v>0.85</v>
       </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="90">
+      <c r="C16" s="85"/>
+      <c r="D16" s="82">
         <v>0.95</v>
       </c>
-      <c r="E16" s="93"/>
-      <c r="F16" s="90">
+      <c r="E16" s="85"/>
+      <c r="F16" s="82">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G16" s="91"/>
+      <c r="G16" s="83"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="84" t="s">
         <v>149</v>
       </c>
-      <c r="C17" s="93"/>
-      <c r="D17" s="90">
+      <c r="C17" s="85"/>
+      <c r="D17" s="82">
         <v>1.2</v>
       </c>
-      <c r="E17" s="93"/>
-      <c r="F17" s="90">
+      <c r="E17" s="85"/>
+      <c r="F17" s="82">
         <v>1.4</v>
       </c>
-      <c r="G17" s="91"/>
+      <c r="G17" s="83"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="92">
+      <c r="B18" s="84">
         <v>0.75</v>
       </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="90">
+      <c r="C18" s="85"/>
+      <c r="D18" s="82">
         <v>0.8</v>
       </c>
-      <c r="E18" s="93"/>
-      <c r="F18" s="90">
+      <c r="E18" s="85"/>
+      <c r="F18" s="82">
         <v>0.95</v>
       </c>
-      <c r="G18" s="91"/>
+      <c r="G18" s="83"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="92">
+      <c r="B19" s="84">
         <v>1.25</v>
       </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="90">
+      <c r="C19" s="85"/>
+      <c r="D19" s="82">
         <v>1.35</v>
       </c>
-      <c r="E19" s="93"/>
-      <c r="F19" s="90">
+      <c r="E19" s="85"/>
+      <c r="F19" s="82">
         <v>1.75</v>
       </c>
-      <c r="G19" s="91"/>
+      <c r="G19" s="83"/>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="88">
+      <c r="B20" s="80">
         <v>3</v>
       </c>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="89"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="81"/>
     </row>
     <row r="21" spans="1:7" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
@@ -6564,18 +6582,6 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="F13:G14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/作成リスト.xlsx
+++ b/作成リスト.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="モデル" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="166">
   <si>
     <t>モデル</t>
     <phoneticPr fontId="1"/>
@@ -183,19 +183,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Anim_Game_</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>_Neutral</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Power</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Speed</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -570,10 +558,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Anim_Result_</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>_Win</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -745,22 +729,6 @@
   </si>
   <si>
     <t>アニメーション(スピード)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイル名(双剣/鉤爪)</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ソウケン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カギ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ツメ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -926,6 +894,67 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名(ハンマー)</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hammer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名(アックス)</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Axe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名(大剣)</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タイケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GreatSword</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TwinSword</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名(双剣)</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名(鉤爪)</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Claw</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1629,7 +1658,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1669,9 +1698,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1762,6 +1788,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1795,9 +1824,36 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1807,6 +1863,9 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1816,42 +1875,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1870,6 +1893,39 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1886,39 +1942,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2203,8 +2226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2224,7 +2247,7 @@
       <c r="C1" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2232,7 +2255,7 @@
       <c r="A2" s="48"/>
       <c r="B2" s="49"/>
       <c r="C2" s="51"/>
-      <c r="D2" s="18" t="str">
+      <c r="D2" s="17" t="str">
         <f>CONCATENATE(COUNTIF(D3:D100,"〇"),"／",COUNTA(C3:C100))</f>
         <v>1／12</v>
       </c>
@@ -2247,7 +2270,7 @@
       <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="40" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2259,7 +2282,7 @@
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="42" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2268,10 +2291,10 @@
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="42" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2282,10 +2305,10 @@
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="42" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2297,19 +2320,19 @@
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="42" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="54"/>
       <c r="B8" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D8" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="42" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2323,7 +2346,7 @@
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="42" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2335,19 +2358,19 @@
       <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="42" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="54"/>
       <c r="B11" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D11" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="42" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2357,9 +2380,9 @@
       </c>
       <c r="B12" s="45"/>
       <c r="C12" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="41" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2371,8 +2394,8 @@
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="43" t="s">
-        <v>160</v>
+      <c r="D13" s="42" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2383,7 +2406,7 @@
       <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="43"/>
+      <c r="D14" s="42"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3"/>
@@ -2513,10 +2536,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2525,846 +2548,1169 @@
     <col min="2" max="2" width="8.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.58203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.9140625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.6640625" style="1"/>
+    <col min="7" max="7" width="32.58203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.58203125" style="1" customWidth="1"/>
+    <col min="10" max="12" width="8.6640625" style="1"/>
+    <col min="13" max="13" width="8.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="21" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="30" t="str">
+      <c r="G1" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="29" t="str">
         <f>CONCATENATE(COUNTIF(F3:F100,"〇"),"／",COUNTA(E3:E100))</f>
         <v>0／39</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="62" t="s">
+      <c r="G2" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="29" t="str">
+        <f>CONCATENATE(COUNTIF(H3:H100,"〇"),"／",COUNTA(G3:G100))</f>
+        <v>0／39</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" s="29" t="str">
+        <f>CONCATENATE(COUNTIF(J3:J100,"〇"),"／",COUNTA(I3:I100))</f>
+        <v>0／39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="10" t="str">
-        <f>CONCATENATE(G3,$I$3,H3)</f>
-        <v>Anim_Game_Power_Neutral</v>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="43" t="str">
+        <f>CONCATENATE($E$2,M3)</f>
+        <v>Hammer_Neutral</v>
       </c>
       <c r="F3" s="4"/>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="43" t="str">
+        <f>CONCATENATE($G$2,M3)</f>
+        <v>Axe_Neutral</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="43" t="str">
+        <f>CONCATENATE($I$2,M3)</f>
+        <v>GreatSword_Neutral</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="M3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="53"/>
       <c r="B4" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="55"/>
+        <v>30</v>
+      </c>
+      <c r="C4" s="58"/>
       <c r="D4" s="45"/>
-      <c r="E4" s="13" t="str">
-        <f t="shared" ref="E4:E41" si="0">CONCATENATE(G4,$I$3,H4)</f>
-        <v>Anim_Game_Power_Move</v>
+      <c r="E4" s="43" t="str">
+        <f t="shared" ref="E4:E41" si="0">CONCATENATE($E$2,M4)</f>
+        <v>Hammer_Move</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G4" s="43" t="str">
+        <f t="shared" ref="G4:G41" si="1">CONCATENATE($G$2,M4)</f>
+        <v>Axe_Move</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="43" t="str">
+        <f t="shared" ref="I4:I41" si="2">CONCATENATE($I$2,M4)</f>
+        <v>GreatSword_Move</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="M4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="53"/>
       <c r="B5" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="55"/>
+        <v>51</v>
+      </c>
+      <c r="C5" s="58"/>
       <c r="D5" s="45"/>
-      <c r="E5" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Power_Jump</v>
+      <c r="E5" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Hammer_Jump</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G5" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Axe_Jump</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>GreatSword_Jump</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="M5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="53"/>
       <c r="B6" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Hammer_Fall</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Axe_Fall</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>GreatSword_Fall</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="M6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="53"/>
+      <c r="B7" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="70"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Hammer_Squat</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Axe_Squat</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>GreatSword_Squat</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="M7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="53"/>
+      <c r="B8" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Hammer_Squat_Guard</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Axe_Squat_Guard</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>GreatSword_Squat_Guard</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="M8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="53"/>
+      <c r="B9" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="66"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Hammer_Guard</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Axe_Guard</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>GreatSword_Guard</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="M9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Power_Fall</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="1" t="s">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="53"/>
+      <c r="B10" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="66"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Hammer_Guard_Break</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Axe_Guard_Break</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>GreatSword_Guard_Break</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="M10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="53"/>
+      <c r="B11" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Hammer_Damage</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Axe_Damage</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>GreatSword_Damage</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="M11" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="53"/>
-      <c r="B7" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Power_Squat</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="53"/>
-      <c r="B8" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Power_Squat_Guard</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="53"/>
-      <c r="B9" s="56" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="53"/>
+      <c r="B12" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Power_Guard</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Hammer_Damage_Meteo</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Axe_Damage_Meteo</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>GreatSword_Damage_Meteo</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="M12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="53"/>
+      <c r="B13" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="66"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Hammer_Burst</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Axe_Burst</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>GreatSword_Burst</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="M13" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="53"/>
-      <c r="B10" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Power_Guard_Break</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="1" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="53"/>
+      <c r="B14" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="66"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Hammer_Fly</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Axe_Fly</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>GreatSword_Fly</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="M14" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="53"/>
-      <c r="B11" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Power_Damage</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="1" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="53"/>
+      <c r="B15" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="66"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Hammer_Fly_Move</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Axe_Fly_Move</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>GreatSword_Fly_Move</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="M15" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="53"/>
-      <c r="B12" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Power_Damage_Meteo</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="1" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="53"/>
+      <c r="B16" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="66"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Hammer_Fly_Guard</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Axe_Fly_Guard</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>GreatSword_Fly_Guard</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="M16" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="53"/>
+      <c r="B17" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="66"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Hammer_UnStamina</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Axe_UnStamina</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>GreatSword_UnStamina</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="M17" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="53"/>
-      <c r="B13" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Power_Burst</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="1" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="53"/>
+      <c r="B18" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="66"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Hammer_Down</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Axe_Down</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>GreatSword_Down</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="M18" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="53"/>
-      <c r="B14" s="56" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="53"/>
+      <c r="B19" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Power_Fly</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="C19" s="66"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Hammer_Stun</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Axe_Stun</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>GreatSword_Stun</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="M19" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="53"/>
-      <c r="B15" s="56" t="s">
+    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="53"/>
+      <c r="B20" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Power_Fly_Move</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="53"/>
-      <c r="B16" s="56" t="s">
+      <c r="C20" s="66"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Hammer_Wake_Up</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Axe_Wake_Up</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>GreatSword_Wake_Up</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="M20" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="53"/>
+      <c r="B21" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Power_Fly_Guard</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="53"/>
-      <c r="B17" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Power_UnStamina</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="53"/>
-      <c r="B18" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Power_Down</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="53"/>
-      <c r="B19" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Power_Stun</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="C21" s="70"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Hammer_Revival</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Axe_Revival</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>GreatSword_Revival</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="M21" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="53"/>
-      <c r="B20" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Power_Wake_Up</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="53"/>
-      <c r="B21" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Power_Revival</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="53"/>
       <c r="B22" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Power_Rolling</v>
+        <v>66</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="67"/>
+      <c r="E22" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Hammer_Rolling</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G22" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Axe_Rolling</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>GreatSword_Rolling</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="M22" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="53"/>
       <c r="B23" s="53"/>
-      <c r="C23" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Power_Side_Step_L</v>
+      <c r="C23" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="67"/>
+      <c r="E23" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Hammer_Side_Step_L</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G23" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Axe_Side_Step_L</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>GreatSword_Side_Step_L</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="M23" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="53"/>
       <c r="B24" s="53"/>
-      <c r="C24" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="58"/>
-      <c r="E24" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Power_Side_Step_R</v>
+      <c r="C24" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="67"/>
+      <c r="E24" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Hammer_Side_Step_R</v>
       </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G24" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Axe_Side_Step_R</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>GreatSword_Side_Step_R</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="M24" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="53"/>
       <c r="B25" s="54"/>
-      <c r="C25" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Power_Back_Step</v>
+      <c r="C25" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="67"/>
+      <c r="E25" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Hammer_Back_Step</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G25" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Axe_Back_Step</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>GreatSword_Back_Step</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="M25" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="53"/>
       <c r="B26" s="52" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Power_Attack_Ground_L</v>
+        <v>76</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Hammer_Attack_Ground_L</v>
       </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G26" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Axe_Attack_Ground_L</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>GreatSword_Attack_Ground_L</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="M26" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="53"/>
       <c r="B27" s="53"/>
       <c r="C27" s="53"/>
-      <c r="D27" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Power_Attack_Ground_M</v>
+      <c r="D27" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Hammer_Attack_Ground_M</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G27" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Axe_Attack_Ground_M</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>GreatSword_Attack_Ground_M</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="M27" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="53"/>
       <c r="B28" s="53"/>
       <c r="C28" s="54"/>
-      <c r="D28" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Power_Attack_Ground_H</v>
+      <c r="D28" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Hammer_Attack_Ground_H</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G28" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Axe_Attack_Ground_H</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>GreatSword_Attack_Ground_H</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="M28" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="53"/>
       <c r="B29" s="53"/>
       <c r="C29" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Power_Attack_Air_L</v>
+      <c r="D29" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Hammer_Attack_Air_L</v>
       </c>
       <c r="F29" s="6"/>
-      <c r="G29" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G29" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Axe_Attack_Air_L</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>GreatSword_Attack_Air_L</v>
+      </c>
+      <c r="J29" s="6"/>
+      <c r="M29" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="53"/>
       <c r="B30" s="53"/>
       <c r="C30" s="53"/>
-      <c r="D30" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Power_Attack_Air_M</v>
+      <c r="D30" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Hammer_Attack_Air_M</v>
       </c>
       <c r="F30" s="6"/>
-      <c r="G30" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G30" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Axe_Attack_Air_M</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>GreatSword_Attack_Air_M</v>
+      </c>
+      <c r="J30" s="6"/>
+      <c r="M30" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="53"/>
       <c r="B31" s="53"/>
       <c r="C31" s="54"/>
-      <c r="D31" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Power_Attack_Air_H</v>
+      <c r="D31" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Hammer_Attack_Air_H</v>
       </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G31" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Axe_Attack_Air_H</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>GreatSword_Attack_Air_H</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="M31" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="53"/>
       <c r="B32" s="53"/>
       <c r="C32" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Power_Attack_Squat_L</v>
+        <v>81</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Hammer_Attack_Squat_L</v>
       </c>
       <c r="F32" s="5"/>
-      <c r="G32" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G32" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Axe_Attack_Squat_L</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>GreatSword_Attack_Squat_L</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="M32" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="53"/>
       <c r="B33" s="53"/>
       <c r="C33" s="53"/>
-      <c r="D33" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Power_Attack_Squat_M</v>
+      <c r="D33" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Hammer_Attack_Squat_M</v>
       </c>
       <c r="F33" s="5"/>
-      <c r="G33" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G33" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Axe_Attack_Squat_M</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>GreatSword_Attack_Squat_M</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="M33" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="53"/>
       <c r="B34" s="53"/>
       <c r="C34" s="54"/>
-      <c r="D34" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Power_Attack_Squat_H</v>
-      </c>
-      <c r="F34" s="25"/>
-      <c r="G34" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D34" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Hammer_Attack_Squat_H</v>
+      </c>
+      <c r="F34" s="24"/>
+      <c r="G34" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Axe_Attack_Squat_H</v>
+      </c>
+      <c r="H34" s="24"/>
+      <c r="I34" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>GreatSword_Attack_Squat_H</v>
+      </c>
+      <c r="J34" s="24"/>
+      <c r="M34" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="53"/>
       <c r="B35" s="53"/>
       <c r="C35" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Power_Attack_Move_L</v>
-      </c>
-      <c r="F35" s="25"/>
-      <c r="G35" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>30</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Hammer_Attack_Move_L</v>
+      </c>
+      <c r="F35" s="24"/>
+      <c r="G35" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Axe_Attack_Move_L</v>
+      </c>
+      <c r="H35" s="24"/>
+      <c r="I35" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>GreatSword_Attack_Move_L</v>
+      </c>
+      <c r="J35" s="24"/>
+      <c r="M35" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="53"/>
       <c r="B36" s="53"/>
       <c r="C36" s="53"/>
-      <c r="D36" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Power_Attack_Move_M</v>
-      </c>
-      <c r="F36" s="25"/>
-      <c r="G36" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D36" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Hammer_Attack_Move_M</v>
+      </c>
+      <c r="F36" s="24"/>
+      <c r="G36" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Axe_Attack_Move_M</v>
+      </c>
+      <c r="H36" s="24"/>
+      <c r="I36" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>GreatSword_Attack_Move_M</v>
+      </c>
+      <c r="J36" s="24"/>
+      <c r="M36" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="53"/>
       <c r="B37" s="53"/>
       <c r="C37" s="54"/>
-      <c r="D37" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E37" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Power_Attack_Move_H</v>
-      </c>
-      <c r="F37" s="25"/>
-      <c r="G37" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D37" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Hammer_Attack_Move_H</v>
+      </c>
+      <c r="F37" s="24"/>
+      <c r="G37" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Axe_Attack_Move_H</v>
+      </c>
+      <c r="H37" s="24"/>
+      <c r="I37" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>GreatSword_Attack_Move_H</v>
+      </c>
+      <c r="J37" s="24"/>
+      <c r="M37" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="53"/>
       <c r="B38" s="53"/>
       <c r="C38" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E38" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Power_Attack_Charge</v>
-      </c>
-      <c r="F38" s="25"/>
-      <c r="G38" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>79</v>
+      </c>
+      <c r="E38" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Hammer_Attack_Charge</v>
+      </c>
+      <c r="F38" s="24"/>
+      <c r="G38" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Axe_Attack_Charge</v>
+      </c>
+      <c r="H38" s="24"/>
+      <c r="I38" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>GreatSword_Attack_Charge</v>
+      </c>
+      <c r="J38" s="24"/>
+      <c r="M38" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="54"/>
       <c r="B39" s="54"/>
       <c r="C39" s="44" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D39" s="45"/>
-      <c r="E39" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Power_Attack_Special</v>
-      </c>
-      <c r="F39" s="25"/>
-      <c r="G39" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E39" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Hammer_Attack_Special</v>
+      </c>
+      <c r="F39" s="24"/>
+      <c r="G39" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Axe_Attack_Special</v>
+      </c>
+      <c r="H39" s="24"/>
+      <c r="I39" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>GreatSword_Attack_Special</v>
+      </c>
+      <c r="J39" s="24"/>
+      <c r="M39" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="58"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Hammer_Win</v>
+      </c>
+      <c r="F40" s="24"/>
+      <c r="G40" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Axe_Win</v>
+      </c>
+      <c r="H40" s="24"/>
+      <c r="I40" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>GreatSword_Win</v>
+      </c>
+      <c r="J40" s="24"/>
+      <c r="M40" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="55"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Result_Power_Win</v>
-      </c>
-      <c r="F40" s="25"/>
-      <c r="G40" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="54"/>
       <c r="B41" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="55"/>
+        <v>100</v>
+      </c>
+      <c r="C41" s="58"/>
       <c r="D41" s="45"/>
-      <c r="E41" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Result_Power_Lose</v>
-      </c>
-      <c r="F41" s="25"/>
-      <c r="G41" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E41" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Hammer_Lose</v>
+      </c>
+      <c r="F41" s="24"/>
+      <c r="G41" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Axe_Lose</v>
+      </c>
+      <c r="H41" s="24"/>
+      <c r="I41" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>GreatSword_Lose</v>
+      </c>
+      <c r="J41" s="24"/>
+      <c r="M41" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="10"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="22"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="F42" s="24"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="24"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="10"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="22"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="F43" s="24"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="24"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="10"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="22"/>
-    </row>
-    <row r="45" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="F44" s="24"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="24"/>
+    </row>
+    <row r="45" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
-      <c r="D45" s="23"/>
+      <c r="D45" s="22"/>
       <c r="E45" s="7"/>
       <c r="F45" s="8"/>
-      <c r="G45" s="22"/>
-    </row>
-    <row r="46" spans="1:8" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D46" s="24"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="8"/>
+    </row>
+    <row r="46" spans="1:13" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D46" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:E2"/>
+  <mergeCells count="35">
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="A3:A39"/>
@@ -3381,21 +3727,10 @@
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A1:D2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3408,7 +3743,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3417,1057 +3752,1173 @@
     <col min="2" max="2" width="8.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.58203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.9140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.58203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.58203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="7.9140625" style="1" customWidth="1"/>
-    <col min="9" max="11" width="8.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="32.58203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1" s="21" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="H1" s="21" t="s">
+      <c r="G1" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="30" t="str">
+      <c r="I1" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="29" t="str">
         <f>CONCATENATE(COUNTIF(F3:F100,"〇"),"／",COUNTA(E3:E100))</f>
         <v>0／39</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="H2" s="30" t="str">
+      <c r="G2" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" s="29" t="str">
         <f>CONCATENATE(COUNTIF(H3:H100,"〇"),"／",COUNTA(G3:G100))</f>
         <v>0／39</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="62" t="s">
+      <c r="I2" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" s="29" t="str">
+        <f>CONCATENATE(COUNTIF(J3:J100,"〇"),"／",COUNTA(I3:I100))</f>
+        <v>0／39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="10" t="str">
-        <f>CONCATENATE(I3,$E$2,J3)</f>
-        <v>Anim_Game_Speed_Neutral</v>
+        <f>CONCATENATE($E$2,K3)</f>
+        <v>TwinSword_Neutral</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="10" t="str">
-        <f>CONCATENATE(I3,$G$2,J3)</f>
-        <v>Anim_Game_Sardine_Neutral</v>
+        <f>CONCATENATE($G$2,K3)</f>
+        <v>Claw_Neutral</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="43" t="str">
+        <f>CONCATENATE($G$2,K3)</f>
+        <v>Claw_Neutral</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="53"/>
       <c r="B4" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="55"/>
+        <v>30</v>
+      </c>
+      <c r="C4" s="58"/>
       <c r="D4" s="45"/>
-      <c r="E4" s="13" t="str">
-        <f t="shared" ref="E4:E41" si="0">CONCATENATE(I4,$E$2,J4)</f>
-        <v>Anim_Game_Speed_Move</v>
+      <c r="E4" s="43" t="str">
+        <f t="shared" ref="E4:E41" si="0">CONCATENATE($E$2,K4)</f>
+        <v>TwinSword_Move</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="13" t="str">
-        <f t="shared" ref="G4:G41" si="1">CONCATENATE(I4,$G$2,J4)</f>
-        <v>Anim_Game_Sardine_Move</v>
+      <c r="G4" s="43" t="str">
+        <f t="shared" ref="G4:G41" si="1">CONCATENATE($G$2,K4)</f>
+        <v>Claw_Move</v>
       </c>
       <c r="H4" s="5"/>
-      <c r="I4" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I4" s="43" t="str">
+        <f t="shared" ref="I4:I41" si="2">CONCATENATE($G$2,K4)</f>
+        <v>Claw_Move</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="53"/>
       <c r="B5" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="55"/>
+        <v>51</v>
+      </c>
+      <c r="C5" s="58"/>
       <c r="D5" s="45"/>
-      <c r="E5" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Speed_Jump</v>
+      <c r="E5" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>TwinSword_Jump</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Sardine_Jump</v>
+      <c r="G5" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Claw_Jump</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I5" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Claw_Jump</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="53"/>
       <c r="B6" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>TwinSword_Fall</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Claw_Fall</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Claw_Fall</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="53"/>
+      <c r="B7" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="70"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>TwinSword_Squat</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Claw_Squat</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Claw_Squat</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="53"/>
+      <c r="B8" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>TwinSword_Squat_Guard</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Claw_Squat_Guard</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Claw_Squat_Guard</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="53"/>
+      <c r="B9" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="66"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>TwinSword_Guard</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Claw_Guard</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Claw_Guard</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Speed_Fall</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Sardine_Fall</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="1" t="s">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="53"/>
+      <c r="B10" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="66"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>TwinSword_Guard_Break</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Claw_Guard_Break</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Claw_Guard_Break</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="53"/>
+      <c r="B11" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>TwinSword_Damage</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Claw_Damage</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Claw_Damage</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="53"/>
-      <c r="B7" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Speed_Squat</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Sardine_Squat</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="53"/>
-      <c r="B8" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Speed_Squat_Guard</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Sardine_Squat_Guard</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="53"/>
-      <c r="B9" s="56" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="53"/>
+      <c r="B12" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Speed_Guard</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Sardine_Guard</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>TwinSword_Damage_Meteo</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Claw_Damage_Meteo</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Claw_Damage_Meteo</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="53"/>
+      <c r="B13" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="66"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>TwinSword_Burst</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Claw_Burst</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Claw_Burst</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="53"/>
-      <c r="B10" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Speed_Guard_Break</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Sardine_Guard_Break</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="1" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="53"/>
+      <c r="B14" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="66"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>TwinSword_Fly</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Claw_Fly</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Claw_Fly</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="53"/>
-      <c r="B11" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Speed_Damage</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Sardine_Damage</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="1" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="53"/>
+      <c r="B15" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="66"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>TwinSword_Fly_Move</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Claw_Fly_Move</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Claw_Fly_Move</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="53"/>
-      <c r="B12" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Speed_Damage_Meteo</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Sardine_Damage_Meteo</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="1" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="53"/>
+      <c r="B16" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="66"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>TwinSword_Fly_Guard</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Claw_Fly_Guard</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Claw_Fly_Guard</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="53"/>
+      <c r="B17" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="66"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>TwinSword_UnStamina</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Claw_UnStamina</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Claw_UnStamina</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="53"/>
-      <c r="B13" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Speed_Burst</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Sardine_Burst</v>
-      </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="1" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="53"/>
+      <c r="B18" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="66"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>TwinSword_Down</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Claw_Down</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Claw_Down</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="53"/>
-      <c r="B14" s="56" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="53"/>
+      <c r="B19" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Speed_Fly</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Sardine_Fly</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="C19" s="66"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>TwinSword_Stun</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Claw_Stun</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Claw_Stun</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="53"/>
-      <c r="B15" s="56" t="s">
+    <row r="20" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="53"/>
+      <c r="B20" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Speed_Fly_Move</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Sardine_Fly_Move</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="53"/>
-      <c r="B16" s="56" t="s">
+      <c r="C20" s="66"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>TwinSword_Wake_Up</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Claw_Wake_Up</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Claw_Wake_Up</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="53"/>
+      <c r="B21" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Speed_Fly_Guard</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Sardine_Fly_Guard</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="53"/>
-      <c r="B17" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Speed_UnStamina</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Sardine_UnStamina</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="53"/>
-      <c r="B18" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Speed_Down</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Sardine_Down</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="53"/>
-      <c r="B19" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Speed_Stun</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Sardine_Stun</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="1" t="s">
+      <c r="C21" s="70"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>TwinSword_Revival</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Claw_Revival</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Claw_Revival</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="53"/>
-      <c r="B20" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Speed_Wake_Up</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Sardine_Wake_Up</v>
-      </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="53"/>
-      <c r="B21" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Speed_Revival</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Sardine_Revival</v>
-      </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="53"/>
       <c r="B22" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Speed_Rolling</v>
+        <v>66</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="67"/>
+      <c r="E22" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>TwinSword_Rolling</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Sardine_Rolling</v>
+      <c r="G22" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Claw_Rolling</v>
       </c>
       <c r="H22" s="6"/>
-      <c r="I22" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I22" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Claw_Rolling</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="53"/>
       <c r="B23" s="53"/>
-      <c r="C23" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Speed_Side_Step_L</v>
+      <c r="C23" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="67"/>
+      <c r="E23" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>TwinSword_Side_Step_L</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Sardine_Side_Step_L</v>
+      <c r="G23" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Claw_Side_Step_L</v>
       </c>
       <c r="H23" s="6"/>
-      <c r="I23" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I23" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Claw_Side_Step_L</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="53"/>
       <c r="B24" s="53"/>
-      <c r="C24" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="58"/>
-      <c r="E24" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Speed_Side_Step_R</v>
+      <c r="C24" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="67"/>
+      <c r="E24" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>TwinSword_Side_Step_R</v>
       </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Sardine_Side_Step_R</v>
+      <c r="G24" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Claw_Side_Step_R</v>
       </c>
       <c r="H24" s="6"/>
-      <c r="I24" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I24" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Claw_Side_Step_R</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="53"/>
       <c r="B25" s="54"/>
-      <c r="C25" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Speed_Back_Step</v>
+      <c r="C25" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="67"/>
+      <c r="E25" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>TwinSword_Back_Step</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Sardine_Back_Step</v>
+      <c r="G25" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Claw_Back_Step</v>
       </c>
       <c r="H25" s="6"/>
-      <c r="I25" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I25" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Claw_Back_Step</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="53"/>
       <c r="B26" s="52" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Speed_Attack_Ground_L</v>
+        <v>76</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>TwinSword_Attack_Ground_L</v>
       </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Sardine_Attack_Ground_L</v>
+      <c r="G26" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Claw_Attack_Ground_L</v>
       </c>
       <c r="H26" s="6"/>
-      <c r="I26" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I26" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Claw_Attack_Ground_L</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="53"/>
       <c r="B27" s="53"/>
       <c r="C27" s="53"/>
-      <c r="D27" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Speed_Attack_Ground_M</v>
+      <c r="D27" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>TwinSword_Attack_Ground_M</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Sardine_Attack_Ground_M</v>
+      <c r="G27" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Claw_Attack_Ground_M</v>
       </c>
       <c r="H27" s="6"/>
-      <c r="I27" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I27" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Claw_Attack_Ground_M</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="53"/>
       <c r="B28" s="53"/>
       <c r="C28" s="54"/>
-      <c r="D28" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Speed_Attack_Ground_H</v>
+      <c r="D28" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>TwinSword_Attack_Ground_H</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Sardine_Attack_Ground_H</v>
+      <c r="G28" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Claw_Attack_Ground_H</v>
       </c>
       <c r="H28" s="6"/>
-      <c r="I28" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I28" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Claw_Attack_Ground_H</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="K28" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="53"/>
       <c r="B29" s="53"/>
       <c r="C29" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Speed_Attack_Air_L</v>
+      <c r="D29" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>TwinSword_Attack_Air_L</v>
       </c>
       <c r="F29" s="6"/>
-      <c r="G29" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Sardine_Attack_Air_L</v>
+      <c r="G29" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Claw_Attack_Air_L</v>
       </c>
       <c r="H29" s="6"/>
-      <c r="I29" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I29" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Claw_Attack_Air_L</v>
+      </c>
+      <c r="J29" s="6"/>
+      <c r="K29" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="53"/>
       <c r="B30" s="53"/>
       <c r="C30" s="53"/>
-      <c r="D30" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Speed_Attack_Air_M</v>
+      <c r="D30" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>TwinSword_Attack_Air_M</v>
       </c>
       <c r="F30" s="6"/>
-      <c r="G30" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Sardine_Attack_Air_M</v>
+      <c r="G30" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Claw_Attack_Air_M</v>
       </c>
       <c r="H30" s="6"/>
-      <c r="I30" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I30" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Claw_Attack_Air_M</v>
+      </c>
+      <c r="J30" s="6"/>
+      <c r="K30" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="53"/>
       <c r="B31" s="53"/>
       <c r="C31" s="54"/>
-      <c r="D31" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Speed_Attack_Air_H</v>
+      <c r="D31" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>TwinSword_Attack_Air_H</v>
       </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Sardine_Attack_Air_H</v>
+      <c r="G31" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Claw_Attack_Air_H</v>
       </c>
       <c r="H31" s="6"/>
-      <c r="I31" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I31" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Claw_Attack_Air_H</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="K31" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="53"/>
       <c r="B32" s="53"/>
       <c r="C32" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Speed_Attack_Squat_L</v>
+        <v>81</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>TwinSword_Attack_Squat_L</v>
       </c>
       <c r="F32" s="5"/>
-      <c r="G32" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Sardine_Attack_Squat_L</v>
+      <c r="G32" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Claw_Attack_Squat_L</v>
       </c>
       <c r="H32" s="5"/>
-      <c r="I32" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I32" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Claw_Attack_Squat_L</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="K32" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="53"/>
       <c r="B33" s="53"/>
       <c r="C33" s="53"/>
-      <c r="D33" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Speed_Attack_Squat_M</v>
+      <c r="D33" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>TwinSword_Attack_Squat_M</v>
       </c>
       <c r="F33" s="5"/>
-      <c r="G33" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Sardine_Attack_Squat_M</v>
+      <c r="G33" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Claw_Attack_Squat_M</v>
       </c>
       <c r="H33" s="5"/>
-      <c r="I33" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I33" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Claw_Attack_Squat_M</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="K33" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="53"/>
       <c r="B34" s="53"/>
       <c r="C34" s="54"/>
-      <c r="D34" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Speed_Attack_Squat_H</v>
-      </c>
-      <c r="F34" s="25"/>
-      <c r="G34" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Sardine_Attack_Squat_H</v>
-      </c>
-      <c r="H34" s="25"/>
-      <c r="I34" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D34" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>TwinSword_Attack_Squat_H</v>
+      </c>
+      <c r="F34" s="24"/>
+      <c r="G34" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Claw_Attack_Squat_H</v>
+      </c>
+      <c r="H34" s="24"/>
+      <c r="I34" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Claw_Attack_Squat_H</v>
+      </c>
+      <c r="J34" s="24"/>
+      <c r="K34" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="53"/>
       <c r="B35" s="53"/>
       <c r="C35" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Speed_Attack_Move_L</v>
-      </c>
-      <c r="F35" s="25"/>
-      <c r="G35" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Sardine_Attack_Move_L</v>
-      </c>
-      <c r="H35" s="25"/>
-      <c r="I35" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>30</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>TwinSword_Attack_Move_L</v>
+      </c>
+      <c r="F35" s="24"/>
+      <c r="G35" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Claw_Attack_Move_L</v>
+      </c>
+      <c r="H35" s="24"/>
+      <c r="I35" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Claw_Attack_Move_L</v>
+      </c>
+      <c r="J35" s="24"/>
+      <c r="K35" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="53"/>
       <c r="B36" s="53"/>
       <c r="C36" s="53"/>
-      <c r="D36" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Speed_Attack_Move_M</v>
-      </c>
-      <c r="F36" s="25"/>
-      <c r="G36" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Sardine_Attack_Move_M</v>
-      </c>
-      <c r="H36" s="25"/>
-      <c r="I36" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D36" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>TwinSword_Attack_Move_M</v>
+      </c>
+      <c r="F36" s="24"/>
+      <c r="G36" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Claw_Attack_Move_M</v>
+      </c>
+      <c r="H36" s="24"/>
+      <c r="I36" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Claw_Attack_Move_M</v>
+      </c>
+      <c r="J36" s="24"/>
+      <c r="K36" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="53"/>
       <c r="B37" s="53"/>
       <c r="C37" s="54"/>
-      <c r="D37" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E37" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Speed_Attack_Move_H</v>
-      </c>
-      <c r="F37" s="25"/>
-      <c r="G37" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Sardine_Attack_Move_H</v>
-      </c>
-      <c r="H37" s="25"/>
-      <c r="I37" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D37" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>TwinSword_Attack_Move_H</v>
+      </c>
+      <c r="F37" s="24"/>
+      <c r="G37" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Claw_Attack_Move_H</v>
+      </c>
+      <c r="H37" s="24"/>
+      <c r="I37" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Claw_Attack_Move_H</v>
+      </c>
+      <c r="J37" s="24"/>
+      <c r="K37" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="53"/>
       <c r="B38" s="53"/>
       <c r="C38" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E38" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Speed_Attack_Charge</v>
-      </c>
-      <c r="F38" s="25"/>
-      <c r="G38" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Sardine_Attack_Charge</v>
-      </c>
-      <c r="H38" s="25"/>
-      <c r="I38" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>79</v>
+      </c>
+      <c r="E38" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>TwinSword_Attack_Charge</v>
+      </c>
+      <c r="F38" s="24"/>
+      <c r="G38" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Claw_Attack_Charge</v>
+      </c>
+      <c r="H38" s="24"/>
+      <c r="I38" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Claw_Attack_Charge</v>
+      </c>
+      <c r="J38" s="24"/>
+      <c r="K38" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="54"/>
       <c r="B39" s="54"/>
       <c r="C39" s="44" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D39" s="45"/>
-      <c r="E39" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Speed_Attack_Special</v>
-      </c>
-      <c r="F39" s="25"/>
-      <c r="G39" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Sardine_Attack_Special</v>
-      </c>
-      <c r="H39" s="25"/>
-      <c r="I39" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E39" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>TwinSword_Attack_Special</v>
+      </c>
+      <c r="F39" s="24"/>
+      <c r="G39" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Claw_Attack_Special</v>
+      </c>
+      <c r="H39" s="24"/>
+      <c r="I39" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Claw_Attack_Special</v>
+      </c>
+      <c r="J39" s="24"/>
+      <c r="K39" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="58"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>TwinSword_Win</v>
+      </c>
+      <c r="F40" s="24"/>
+      <c r="G40" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Claw_Win</v>
+      </c>
+      <c r="H40" s="24"/>
+      <c r="I40" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Claw_Win</v>
+      </c>
+      <c r="J40" s="24"/>
+      <c r="K40" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="55"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Result_Speed_Win</v>
-      </c>
-      <c r="F40" s="25"/>
-      <c r="G40" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Result_Sardine_Win</v>
-      </c>
-      <c r="H40" s="25"/>
-      <c r="I40" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="54"/>
       <c r="B41" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="55"/>
+        <v>100</v>
+      </c>
+      <c r="C41" s="58"/>
       <c r="D41" s="45"/>
-      <c r="E41" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Result_Speed_Lose</v>
-      </c>
-      <c r="F41" s="25"/>
-      <c r="G41" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Result_Sardine_Lose</v>
-      </c>
-      <c r="H41" s="25"/>
-      <c r="I41" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E41" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>TwinSword_Lose</v>
+      </c>
+      <c r="F41" s="24"/>
+      <c r="G41" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Claw_Lose</v>
+      </c>
+      <c r="H41" s="24"/>
+      <c r="I41" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Claw_Lose</v>
+      </c>
+      <c r="J41" s="24"/>
+      <c r="K41" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="10"/>
-      <c r="F42" s="25"/>
+      <c r="F42" s="24"/>
       <c r="G42" s="10"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="22"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="H42" s="24"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="24"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="10"/>
-      <c r="F43" s="25"/>
+      <c r="F43" s="24"/>
       <c r="G43" s="10"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="22"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="H43" s="24"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="24"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="10"/>
-      <c r="F44" s="25"/>
+      <c r="F44" s="24"/>
       <c r="G44" s="10"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="22"/>
-    </row>
-    <row r="45" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="H44" s="24"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="24"/>
+    </row>
+    <row r="45" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
-      <c r="D45" s="23"/>
+      <c r="D45" s="22"/>
       <c r="E45" s="7"/>
       <c r="F45" s="8"/>
       <c r="G45" s="7"/>
       <c r="H45" s="8"/>
-      <c r="I45" s="22"/>
-    </row>
-    <row r="46" spans="1:10" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D46" s="24"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="8"/>
+    </row>
+    <row r="46" spans="1:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D46" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B26:B39"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="A3:A39"/>
@@ -4484,25 +4935,6 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B26:B39"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C39:D39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4514,8 +4946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4531,1209 +4963,1132 @@
     <col min="9" max="9" width="33.58203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="7.9140625" style="1" customWidth="1"/>
     <col min="11" max="12" width="8.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.6640625" style="1"/>
+    <col min="13" max="13" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="66" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="F1" s="21" t="s">
+      <c r="A1" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1" s="21" t="s">
+      <c r="G1" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="J1" s="21" t="s">
+      <c r="I1" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="30" t="str">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="29" t="str">
         <f>CONCATENATE(COUNTIF(F3:F100,"〇"),"／",COUNTA(E3:E100))</f>
         <v>0／39</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="H2" s="30" t="str">
+      <c r="G2" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" s="29" t="str">
         <f>CONCATENATE(COUNTIF(H3:H100,"〇"),"／",COUNTA(G3:G100))</f>
         <v>0／39</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="J2" s="30" t="str">
+      <c r="I2" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="J2" s="29" t="str">
         <f>CONCATENATE(COUNTIF(J3:J100,"〇"),"／",COUNTA(I3:I100))</f>
         <v>0／39</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="10" t="str">
-        <f t="shared" ref="E3:E41" si="0">CONCATENATE(K3,$E$2,L3)</f>
-        <v>Anim_Game_Sword_Neutral</v>
+        <f>CONCATENATE($E$2,L3)</f>
+        <v>Sword_Neutral</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="10" t="str">
-        <f t="shared" ref="G3:G41" si="1">CONCATENATE(K3,$G$2,L3)</f>
-        <v>Anim_Game_Lance_Neutral</v>
+        <f>CONCATENATE($G$2,L3)</f>
+        <v>Lance_Neutral</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="10" t="str">
-        <f>CONCATENATE(K3,$I$2,L3)</f>
-        <v>Anim_Game_Mace_Neutral</v>
+        <f>CONCATENATE($I$2,L3)</f>
+        <v>Mace_Neutral</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="21"/>
+      <c r="L3" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="53"/>
       <c r="B4" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="55"/>
+        <v>30</v>
+      </c>
+      <c r="C4" s="58"/>
       <c r="D4" s="45"/>
-      <c r="E4" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Sword_Move</v>
+      <c r="E4" s="43" t="str">
+        <f t="shared" ref="E4:E41" si="0">CONCATENATE($E$2,L4)</f>
+        <v>Sword_Move</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Lance_Move</v>
+      <c r="G4" s="43" t="str">
+        <f t="shared" ref="G4:G41" si="1">CONCATENATE($G$2,L4)</f>
+        <v>Lance_Move</v>
       </c>
       <c r="H4" s="5"/>
-      <c r="I4" s="13" t="str">
-        <f t="shared" ref="I4:I41" si="2">CONCATENATE(K4,$I$2,L4)</f>
-        <v>Anim_Game_Mace_Move</v>
+      <c r="I4" s="43" t="str">
+        <f t="shared" ref="I4:I41" si="2">CONCATENATE($I$2,L4)</f>
+        <v>Mace_Move</v>
       </c>
       <c r="J4" s="5"/>
-      <c r="K4" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="K4" s="21"/>
       <c r="L4" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="53"/>
       <c r="B5" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="55"/>
+        <v>51</v>
+      </c>
+      <c r="C5" s="58"/>
       <c r="D5" s="45"/>
-      <c r="E5" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Sword_Jump</v>
+      <c r="E5" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sword_Jump</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Lance_Jump</v>
+      <c r="G5" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lance_Jump</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Anim_Game_Mace_Jump</v>
+      <c r="I5" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Mace_Jump</v>
       </c>
       <c r="J5" s="5"/>
-      <c r="K5" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="K5" s="21"/>
       <c r="L5" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="53"/>
       <c r="B6" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="55"/>
+        <v>34</v>
+      </c>
+      <c r="C6" s="58"/>
       <c r="D6" s="45"/>
-      <c r="E6" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Sword_Fall</v>
+      <c r="E6" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sword_Fall</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Lance_Fall</v>
+      <c r="G6" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lance_Fall</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Anim_Game_Mace_Fall</v>
+      <c r="I6" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Mace_Fall</v>
       </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="K6" s="21"/>
       <c r="L6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="53"/>
-      <c r="B7" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Sword_Squat</v>
+      <c r="B7" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="70"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sword_Squat</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Lance_Squat</v>
+      <c r="G7" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lance_Squat</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Anim_Game_Mace_Squat</v>
+      <c r="I7" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Mace_Squat</v>
       </c>
       <c r="J7" s="5"/>
-      <c r="K7" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="K7" s="21"/>
       <c r="L7" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="53"/>
-      <c r="B8" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Sword_Squat_Guard</v>
+      <c r="B8" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sword_Squat_Guard</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Lance_Squat_Guard</v>
+      <c r="G8" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lance_Squat_Guard</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Anim_Game_Mace_Squat_Guard</v>
+      <c r="I8" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Mace_Squat_Guard</v>
       </c>
       <c r="J8" s="5"/>
-      <c r="K8" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="K8" s="21"/>
       <c r="L8" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="53"/>
-      <c r="B9" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Sword_Guard</v>
+      <c r="B9" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="66"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sword_Guard</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Lance_Guard</v>
+      <c r="G9" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lance_Guard</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Anim_Game_Mace_Guard</v>
+      <c r="I9" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Mace_Guard</v>
       </c>
       <c r="J9" s="5"/>
-      <c r="K9" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="K9" s="21"/>
       <c r="L9" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="53"/>
-      <c r="B10" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Sword_Guard_Break</v>
+      <c r="B10" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="66"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sword_Guard_Break</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Lance_Guard_Break</v>
+      <c r="G10" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lance_Guard_Break</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Anim_Game_Mace_Guard_Break</v>
+      <c r="I10" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Mace_Guard_Break</v>
       </c>
       <c r="J10" s="5"/>
-      <c r="K10" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="K10" s="21"/>
       <c r="L10" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="53"/>
-      <c r="B11" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Sword_Damage</v>
+      <c r="B11" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sword_Damage</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Lance_Damage</v>
+      <c r="G11" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lance_Damage</v>
       </c>
       <c r="H11" s="5"/>
-      <c r="I11" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Anim_Game_Mace_Damage</v>
+      <c r="I11" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Mace_Damage</v>
       </c>
       <c r="J11" s="5"/>
-      <c r="K11" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="K11" s="21"/>
       <c r="L11" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="53"/>
-      <c r="B12" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Sword_Damage_Meteo</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Lance_Damage_Meteo</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Anim_Game_Mace_Damage_Meteo</v>
-      </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="B12" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sword_Damage_Meteo</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lance_Damage_Meteo</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Mace_Damage_Meteo</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="21"/>
       <c r="L12" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="53"/>
-      <c r="B13" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Sword_Burst</v>
+      <c r="B13" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="66"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sword_Burst</v>
       </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Lance_Burst</v>
+      <c r="G13" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lance_Burst</v>
       </c>
       <c r="H13" s="5"/>
-      <c r="I13" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Anim_Game_Mace_Burst</v>
+      <c r="I13" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Mace_Burst</v>
       </c>
       <c r="J13" s="5"/>
-      <c r="K13" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="K13" s="21"/>
       <c r="L13" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="53"/>
-      <c r="B14" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Sword_Fly</v>
+      <c r="B14" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="66"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sword_Fly</v>
       </c>
       <c r="F14" s="5"/>
-      <c r="G14" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Lance_Fly</v>
+      <c r="G14" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lance_Fly</v>
       </c>
       <c r="H14" s="5"/>
-      <c r="I14" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Anim_Game_Mace_Fly</v>
+      <c r="I14" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Mace_Fly</v>
       </c>
       <c r="J14" s="5"/>
-      <c r="K14" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="K14" s="21"/>
       <c r="L14" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="53"/>
-      <c r="B15" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Sword_Fly_Move</v>
+      <c r="B15" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="66"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sword_Fly_Move</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Lance_Fly_Move</v>
+      <c r="G15" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lance_Fly_Move</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="I15" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Anim_Game_Mace_Fly_Move</v>
+      <c r="I15" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Mace_Fly_Move</v>
       </c>
       <c r="J15" s="5"/>
-      <c r="K15" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="K15" s="21"/>
       <c r="L15" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="53"/>
-      <c r="B16" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Sword_Fly_Guard</v>
+      <c r="B16" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="66"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sword_Fly_Guard</v>
       </c>
       <c r="F16" s="5"/>
-      <c r="G16" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Lance_Fly_Guard</v>
+      <c r="G16" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lance_Fly_Guard</v>
       </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Anim_Game_Mace_Fly_Guard</v>
+      <c r="I16" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Mace_Fly_Guard</v>
       </c>
       <c r="J16" s="5"/>
-      <c r="K16" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="K16" s="21"/>
       <c r="L16" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="53"/>
-      <c r="B17" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Sword_UnStamina</v>
+      <c r="B17" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="66"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sword_UnStamina</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Lance_UnStamina</v>
+      <c r="G17" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lance_UnStamina</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="I17" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Anim_Game_Mace_UnStamina</v>
+      <c r="I17" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Mace_UnStamina</v>
       </c>
       <c r="J17" s="5"/>
-      <c r="K17" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="K17" s="21"/>
       <c r="L17" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="53"/>
-      <c r="B18" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Sword_Down</v>
+      <c r="B18" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="66"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sword_Down</v>
       </c>
       <c r="F18" s="5"/>
-      <c r="G18" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Lance_Down</v>
+      <c r="G18" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lance_Down</v>
       </c>
       <c r="H18" s="5"/>
-      <c r="I18" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Anim_Game_Mace_Down</v>
+      <c r="I18" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Mace_Down</v>
       </c>
       <c r="J18" s="5"/>
-      <c r="K18" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="K18" s="21"/>
       <c r="L18" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="53"/>
-      <c r="B19" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Sword_Stun</v>
+      <c r="B19" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="66"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sword_Stun</v>
       </c>
       <c r="F19" s="5"/>
-      <c r="G19" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Lance_Stun</v>
+      <c r="G19" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lance_Stun</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Anim_Game_Mace_Stun</v>
+      <c r="I19" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Mace_Stun</v>
       </c>
       <c r="J19" s="5"/>
-      <c r="K19" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="K19" s="21"/>
       <c r="L19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="53"/>
-      <c r="B20" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Sword_Wake_Up</v>
+      <c r="B20" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="66"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sword_Wake_Up</v>
       </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Lance_Wake_Up</v>
+      <c r="G20" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lance_Wake_Up</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Anim_Game_Mace_Wake_Up</v>
+      <c r="I20" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Mace_Wake_Up</v>
       </c>
       <c r="J20" s="5"/>
-      <c r="K20" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="K20" s="21"/>
       <c r="L20" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="53"/>
-      <c r="B21" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Sword_Revival</v>
+      <c r="B21" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="70"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sword_Revival</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Lance_Revival</v>
+      <c r="G21" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lance_Revival</v>
       </c>
       <c r="H21" s="6"/>
-      <c r="I21" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Anim_Game_Mace_Revival</v>
+      <c r="I21" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Mace_Revival</v>
       </c>
       <c r="J21" s="6"/>
-      <c r="K21" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="K21" s="21"/>
       <c r="L21" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="53"/>
       <c r="B22" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Sword_Rolling</v>
+        <v>66</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="67"/>
+      <c r="E22" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sword_Rolling</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Lance_Rolling</v>
+      <c r="G22" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lance_Rolling</v>
       </c>
       <c r="H22" s="6"/>
-      <c r="I22" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Anim_Game_Mace_Rolling</v>
+      <c r="I22" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Mace_Rolling</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="K22" s="21"/>
       <c r="L22" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="53"/>
       <c r="B23" s="53"/>
-      <c r="C23" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Sword_Side_Step_L</v>
+      <c r="C23" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="67"/>
+      <c r="E23" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sword_Side_Step_L</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Lance_Side_Step_L</v>
+      <c r="G23" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lance_Side_Step_L</v>
       </c>
       <c r="H23" s="6"/>
-      <c r="I23" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Anim_Game_Mace_Side_Step_L</v>
+      <c r="I23" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Mace_Side_Step_L</v>
       </c>
       <c r="J23" s="6"/>
-      <c r="K23" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="K23" s="21"/>
       <c r="L23" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="53"/>
       <c r="B24" s="53"/>
-      <c r="C24" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="58"/>
-      <c r="E24" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Sword_Side_Step_R</v>
+      <c r="C24" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="67"/>
+      <c r="E24" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sword_Side_Step_R</v>
       </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Lance_Side_Step_R</v>
+      <c r="G24" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lance_Side_Step_R</v>
       </c>
       <c r="H24" s="6"/>
-      <c r="I24" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Anim_Game_Mace_Side_Step_R</v>
+      <c r="I24" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Mace_Side_Step_R</v>
       </c>
       <c r="J24" s="6"/>
-      <c r="K24" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="K24" s="21"/>
       <c r="L24" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="53"/>
       <c r="B25" s="54"/>
-      <c r="C25" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Sword_Back_Step</v>
+      <c r="C25" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="67"/>
+      <c r="E25" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sword_Back_Step</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Lance_Back_Step</v>
+      <c r="G25" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lance_Back_Step</v>
       </c>
       <c r="H25" s="6"/>
-      <c r="I25" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Anim_Game_Mace_Back_Step</v>
+      <c r="I25" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Mace_Back_Step</v>
       </c>
       <c r="J25" s="6"/>
-      <c r="K25" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="K25" s="21"/>
       <c r="L25" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="53"/>
       <c r="B26" s="52" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Sword_Attack_Ground_L</v>
+        <v>76</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sword_Attack_Ground_L</v>
       </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Lance_Attack_Ground_L</v>
+      <c r="G26" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lance_Attack_Ground_L</v>
       </c>
       <c r="H26" s="6"/>
-      <c r="I26" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Anim_Game_Mace_Attack_Ground_L</v>
+      <c r="I26" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Mace_Attack_Ground_L</v>
       </c>
       <c r="J26" s="6"/>
-      <c r="K26" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="K26" s="21"/>
       <c r="L26" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="53"/>
       <c r="B27" s="53"/>
       <c r="C27" s="53"/>
-      <c r="D27" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Sword_Attack_Ground_M</v>
+      <c r="D27" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sword_Attack_Ground_M</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Lance_Attack_Ground_M</v>
+      <c r="G27" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lance_Attack_Ground_M</v>
       </c>
       <c r="H27" s="6"/>
-      <c r="I27" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Anim_Game_Mace_Attack_Ground_M</v>
+      <c r="I27" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Mace_Attack_Ground_M</v>
       </c>
       <c r="J27" s="6"/>
-      <c r="K27" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="K27" s="21"/>
       <c r="L27" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="53"/>
       <c r="B28" s="53"/>
       <c r="C28" s="54"/>
-      <c r="D28" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Sword_Attack_Ground_H</v>
+      <c r="D28" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sword_Attack_Ground_H</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Lance_Attack_Ground_H</v>
+      <c r="G28" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lance_Attack_Ground_H</v>
       </c>
       <c r="H28" s="6"/>
-      <c r="I28" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Anim_Game_Mace_Attack_Ground_H</v>
+      <c r="I28" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Mace_Attack_Ground_H</v>
       </c>
       <c r="J28" s="6"/>
-      <c r="K28" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="K28" s="21"/>
       <c r="L28" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="53"/>
       <c r="B29" s="53"/>
       <c r="C29" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Sword_Attack_Air_L</v>
+      <c r="D29" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sword_Attack_Air_L</v>
       </c>
       <c r="F29" s="6"/>
-      <c r="G29" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Lance_Attack_Air_L</v>
+      <c r="G29" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lance_Attack_Air_L</v>
       </c>
       <c r="H29" s="6"/>
-      <c r="I29" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Anim_Game_Mace_Attack_Air_L</v>
+      <c r="I29" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Mace_Attack_Air_L</v>
       </c>
       <c r="J29" s="6"/>
-      <c r="K29" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="K29" s="21"/>
       <c r="L29" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="53"/>
       <c r="B30" s="53"/>
       <c r="C30" s="53"/>
-      <c r="D30" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Sword_Attack_Air_M</v>
+      <c r="D30" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sword_Attack_Air_M</v>
       </c>
       <c r="F30" s="6"/>
-      <c r="G30" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Lance_Attack_Air_M</v>
+      <c r="G30" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lance_Attack_Air_M</v>
       </c>
       <c r="H30" s="6"/>
-      <c r="I30" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Anim_Game_Mace_Attack_Air_M</v>
+      <c r="I30" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Mace_Attack_Air_M</v>
       </c>
       <c r="J30" s="6"/>
-      <c r="K30" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="K30" s="21"/>
       <c r="L30" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="53"/>
       <c r="B31" s="53"/>
       <c r="C31" s="54"/>
-      <c r="D31" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Sword_Attack_Air_H</v>
+      <c r="D31" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sword_Attack_Air_H</v>
       </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Lance_Attack_Air_H</v>
+      <c r="G31" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lance_Attack_Air_H</v>
       </c>
       <c r="H31" s="6"/>
-      <c r="I31" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Anim_Game_Mace_Attack_Air_H</v>
+      <c r="I31" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Mace_Attack_Air_H</v>
       </c>
       <c r="J31" s="6"/>
-      <c r="K31" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="K31" s="21"/>
       <c r="L31" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="53"/>
       <c r="B32" s="53"/>
       <c r="C32" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Sword_Attack_Squat_L</v>
+        <v>81</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sword_Attack_Squat_L</v>
       </c>
       <c r="F32" s="5"/>
-      <c r="G32" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Lance_Attack_Squat_L</v>
+      <c r="G32" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lance_Attack_Squat_L</v>
       </c>
       <c r="H32" s="5"/>
-      <c r="I32" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Anim_Game_Mace_Attack_Squat_L</v>
+      <c r="I32" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Mace_Attack_Squat_L</v>
       </c>
       <c r="J32" s="5"/>
-      <c r="K32" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="K32" s="21"/>
       <c r="L32" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="53"/>
       <c r="B33" s="53"/>
       <c r="C33" s="53"/>
-      <c r="D33" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Sword_Attack_Squat_M</v>
+      <c r="D33" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sword_Attack_Squat_M</v>
       </c>
       <c r="F33" s="5"/>
-      <c r="G33" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Lance_Attack_Squat_M</v>
+      <c r="G33" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lance_Attack_Squat_M</v>
       </c>
       <c r="H33" s="5"/>
-      <c r="I33" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Anim_Game_Mace_Attack_Squat_M</v>
+      <c r="I33" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Mace_Attack_Squat_M</v>
       </c>
       <c r="J33" s="5"/>
-      <c r="K33" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="K33" s="21"/>
       <c r="L33" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="53"/>
       <c r="B34" s="53"/>
       <c r="C34" s="54"/>
-      <c r="D34" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Sword_Attack_Squat_H</v>
-      </c>
-      <c r="F34" s="25"/>
-      <c r="G34" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Lance_Attack_Squat_H</v>
-      </c>
-      <c r="H34" s="25"/>
-      <c r="I34" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Anim_Game_Mace_Attack_Squat_H</v>
-      </c>
-      <c r="J34" s="25"/>
-      <c r="K34" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="D34" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sword_Attack_Squat_H</v>
+      </c>
+      <c r="F34" s="24"/>
+      <c r="G34" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lance_Attack_Squat_H</v>
+      </c>
+      <c r="H34" s="24"/>
+      <c r="I34" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Mace_Attack_Squat_H</v>
+      </c>
+      <c r="J34" s="24"/>
+      <c r="K34" s="21"/>
       <c r="L34" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="53"/>
       <c r="B35" s="53"/>
       <c r="C35" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Sword_Attack_Move_L</v>
-      </c>
-      <c r="F35" s="25"/>
-      <c r="G35" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Lance_Attack_Move_L</v>
-      </c>
-      <c r="H35" s="25"/>
-      <c r="I35" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Anim_Game_Mace_Attack_Move_L</v>
-      </c>
-      <c r="J35" s="25"/>
-      <c r="K35" s="22" t="s">
-        <v>29</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sword_Attack_Move_L</v>
+      </c>
+      <c r="F35" s="24"/>
+      <c r="G35" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lance_Attack_Move_L</v>
+      </c>
+      <c r="H35" s="24"/>
+      <c r="I35" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Mace_Attack_Move_L</v>
+      </c>
+      <c r="J35" s="24"/>
+      <c r="K35" s="21"/>
       <c r="L35" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="53"/>
       <c r="B36" s="53"/>
       <c r="C36" s="53"/>
-      <c r="D36" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Sword_Attack_Move_M</v>
-      </c>
-      <c r="F36" s="25"/>
-      <c r="G36" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Lance_Attack_Move_M</v>
-      </c>
-      <c r="H36" s="25"/>
-      <c r="I36" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Anim_Game_Mace_Attack_Move_M</v>
-      </c>
-      <c r="J36" s="25"/>
-      <c r="K36" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="D36" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sword_Attack_Move_M</v>
+      </c>
+      <c r="F36" s="24"/>
+      <c r="G36" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lance_Attack_Move_M</v>
+      </c>
+      <c r="H36" s="24"/>
+      <c r="I36" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Mace_Attack_Move_M</v>
+      </c>
+      <c r="J36" s="24"/>
+      <c r="K36" s="21"/>
       <c r="L36" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="53"/>
       <c r="B37" s="53"/>
       <c r="C37" s="54"/>
-      <c r="D37" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E37" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Sword_Attack_Move_H</v>
-      </c>
-      <c r="F37" s="25"/>
-      <c r="G37" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Lance_Attack_Move_H</v>
-      </c>
-      <c r="H37" s="25"/>
-      <c r="I37" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Anim_Game_Mace_Attack_Move_H</v>
-      </c>
-      <c r="J37" s="25"/>
-      <c r="K37" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="D37" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sword_Attack_Move_H</v>
+      </c>
+      <c r="F37" s="24"/>
+      <c r="G37" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lance_Attack_Move_H</v>
+      </c>
+      <c r="H37" s="24"/>
+      <c r="I37" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Mace_Attack_Move_H</v>
+      </c>
+      <c r="J37" s="24"/>
+      <c r="K37" s="21"/>
       <c r="L37" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="53"/>
       <c r="B38" s="53"/>
       <c r="C38" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E38" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Sword_Attack_Charge</v>
-      </c>
-      <c r="F38" s="25"/>
-      <c r="G38" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Lance_Attack_Charge</v>
-      </c>
-      <c r="H38" s="25"/>
-      <c r="I38" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Anim_Game_Mace_Attack_Charge</v>
-      </c>
-      <c r="J38" s="25"/>
-      <c r="K38" s="22" t="s">
-        <v>29</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E38" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sword_Attack_Charge</v>
+      </c>
+      <c r="F38" s="24"/>
+      <c r="G38" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lance_Attack_Charge</v>
+      </c>
+      <c r="H38" s="24"/>
+      <c r="I38" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Mace_Attack_Charge</v>
+      </c>
+      <c r="J38" s="24"/>
+      <c r="K38" s="21"/>
       <c r="L38" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="54"/>
       <c r="B39" s="54"/>
       <c r="C39" s="44" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D39" s="45"/>
-      <c r="E39" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Game_Sword_Attack_Special</v>
-      </c>
-      <c r="F39" s="25"/>
-      <c r="G39" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Game_Lance_Attack_Special</v>
-      </c>
-      <c r="H39" s="25"/>
-      <c r="I39" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Anim_Game_Mace_Attack_Special</v>
-      </c>
-      <c r="J39" s="25"/>
-      <c r="K39" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="E39" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sword_Attack_Special</v>
+      </c>
+      <c r="F39" s="24"/>
+      <c r="G39" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lance_Attack_Special</v>
+      </c>
+      <c r="H39" s="24"/>
+      <c r="I39" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Mace_Attack_Special</v>
+      </c>
+      <c r="J39" s="24"/>
+      <c r="K39" s="21"/>
       <c r="L39" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="58"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sword_Win</v>
+      </c>
+      <c r="F40" s="24"/>
+      <c r="G40" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lance_Win</v>
+      </c>
+      <c r="H40" s="24"/>
+      <c r="I40" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Mace_Win</v>
+      </c>
+      <c r="J40" s="24"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B40" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="55"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Result_Sword_Win</v>
-      </c>
-      <c r="F40" s="25"/>
-      <c r="G40" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Result_Lance_Win</v>
-      </c>
-      <c r="H40" s="25"/>
-      <c r="I40" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Anim_Result_Mace_Win</v>
-      </c>
-      <c r="J40" s="25"/>
-      <c r="K40" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="54"/>
       <c r="B41" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="55"/>
+        <v>100</v>
+      </c>
+      <c r="C41" s="58"/>
       <c r="D41" s="45"/>
-      <c r="E41" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anim_Result_Sword_Lose</v>
-      </c>
-      <c r="F41" s="25"/>
-      <c r="G41" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Anim_Result_Lance_Lose</v>
-      </c>
-      <c r="H41" s="25"/>
-      <c r="I41" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Anim_Result_Mace_Lose</v>
-      </c>
-      <c r="J41" s="25"/>
-      <c r="K41" s="22" t="s">
-        <v>104</v>
-      </c>
+      <c r="E41" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sword_Lose</v>
+      </c>
+      <c r="F41" s="24"/>
+      <c r="G41" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lance_Lose</v>
+      </c>
+      <c r="H41" s="24"/>
+      <c r="I41" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Mace_Lose</v>
+      </c>
+      <c r="J41" s="24"/>
+      <c r="K41" s="21"/>
       <c r="L41" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5742,12 +6097,12 @@
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="10"/>
-      <c r="F42" s="25"/>
+      <c r="F42" s="24"/>
       <c r="G42" s="10"/>
-      <c r="H42" s="25"/>
+      <c r="H42" s="24"/>
       <c r="I42" s="10"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="22"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="21"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3"/>
@@ -5755,12 +6110,12 @@
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="10"/>
-      <c r="F43" s="25"/>
+      <c r="F43" s="24"/>
       <c r="G43" s="10"/>
-      <c r="H43" s="25"/>
+      <c r="H43" s="24"/>
       <c r="I43" s="10"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="22"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="21"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3"/>
@@ -5768,31 +6123,50 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="10"/>
-      <c r="F44" s="25"/>
+      <c r="F44" s="24"/>
       <c r="G44" s="10"/>
-      <c r="H44" s="25"/>
+      <c r="H44" s="24"/>
       <c r="I44" s="10"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="22"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="21"/>
     </row>
     <row r="45" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
-      <c r="D45" s="23"/>
+      <c r="D45" s="22"/>
       <c r="E45" s="7"/>
       <c r="F45" s="8"/>
       <c r="G45" s="7"/>
       <c r="H45" s="8"/>
       <c r="I45" s="7"/>
       <c r="J45" s="8"/>
-      <c r="K45" s="22"/>
+      <c r="K45" s="21"/>
     </row>
     <row r="46" spans="1:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D46" s="24"/>
+      <c r="D46" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B26:B39"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="A3:A39"/>
     <mergeCell ref="B3:D3"/>
@@ -5809,25 +6183,6 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="B26:B39"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5853,22 +6208,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="74" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="78" t="s">
+      <c r="A1" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="27" t="str">
+      <c r="A2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="26" t="str">
         <f>CONCATENATE(COUNTIF(D3:D100,"〇"),"／",COUNTA(C3:C100))</f>
         <v>0／0</v>
       </c>
@@ -5888,13 +6243,13 @@
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="15"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="16"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5931,7 +6286,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="14"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3"/>
@@ -6082,62 +6437,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="92"/>
-      <c r="B1" s="95" t="s">
+      <c r="A1" s="78"/>
+      <c r="B1" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+    </row>
+    <row r="2" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="79"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94" t="s">
+      <c r="K2" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-    </row>
-    <row r="2" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="93"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="39"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="10">
         <v>1.3</v>
       </c>
@@ -6153,22 +6508,22 @@
       <c r="G3" s="10">
         <v>0.7</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="35">
         <v>0.7</v>
       </c>
-      <c r="I3" s="36">
+      <c r="I3" s="35">
         <v>1</v>
       </c>
       <c r="J3" s="10">
         <v>0.9</v>
       </c>
-      <c r="K3" s="31">
+      <c r="K3" s="30">
         <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="32" t="s">
-        <v>115</v>
+      <c r="A4" s="31" t="s">
+        <v>111</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="3">
@@ -6189,19 +6544,19 @@
       <c r="H4" s="3">
         <v>0.8</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="36">
         <v>1</v>
       </c>
-      <c r="J4" s="37">
+      <c r="J4" s="36">
         <v>1</v>
       </c>
-      <c r="K4" s="32">
+      <c r="K4" s="31">
         <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="32" t="s">
-        <v>116</v>
+      <c r="A5" s="31" t="s">
+        <v>112</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="3">
@@ -6219,356 +6574,344 @@
       <c r="G5" s="3">
         <v>0.8</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="36">
         <v>1</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="36">
         <v>1</v>
       </c>
       <c r="J5" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K5" s="33">
+      <c r="K5" s="32">
         <v>1.2</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="32" t="s">
-        <v>117</v>
+      <c r="A6" s="31" t="s">
+        <v>113</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="K6" s="34" t="s">
-        <v>129</v>
+        <v>125</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="32" t="s">
-        <v>118</v>
+      <c r="A7" s="31" t="s">
+        <v>114</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K7" s="32" t="s">
-        <v>125</v>
+        <v>103</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="32" t="s">
-        <v>119</v>
+      <c r="A8" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="32" t="s">
-        <v>120</v>
+      <c r="A9" s="31" t="s">
+        <v>116</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="K9" s="32" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="32" t="s">
-        <v>121</v>
+      <c r="A10" s="31" t="s">
+        <v>117</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="39"/>
+      <c r="C11" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="K10" s="32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="I11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" s="34" t="s">
         <v>128</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K11" s="35" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="13" spans="1:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="86"/>
-      <c r="B13" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="G13" s="86"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="83"/>
     </row>
     <row r="14" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="87"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
     </row>
     <row r="15" spans="1:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="B15" s="88">
+      <c r="A15" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="85">
         <v>1</v>
       </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="90">
+      <c r="C15" s="86"/>
+      <c r="D15" s="87">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E15" s="89"/>
-      <c r="F15" s="90">
+      <c r="E15" s="86"/>
+      <c r="F15" s="87">
         <v>1.3</v>
       </c>
-      <c r="G15" s="91"/>
+      <c r="G15" s="88"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="B16" s="84">
+      <c r="A16" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="93">
         <v>0.85</v>
       </c>
-      <c r="C16" s="85"/>
-      <c r="D16" s="82">
+      <c r="C16" s="94"/>
+      <c r="D16" s="91">
         <v>0.95</v>
       </c>
-      <c r="E16" s="85"/>
-      <c r="F16" s="82">
+      <c r="E16" s="94"/>
+      <c r="F16" s="91">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G16" s="83"/>
+      <c r="G16" s="92"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" s="84" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="85"/>
-      <c r="D17" s="82">
+      <c r="A17" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="93" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="94"/>
+      <c r="D17" s="91">
         <v>1.2</v>
       </c>
-      <c r="E17" s="85"/>
-      <c r="F17" s="82">
+      <c r="E17" s="94"/>
+      <c r="F17" s="91">
         <v>1.4</v>
       </c>
-      <c r="G17" s="83"/>
+      <c r="G17" s="92"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="B18" s="84">
+      <c r="A18" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="93">
         <v>0.75</v>
       </c>
-      <c r="C18" s="85"/>
-      <c r="D18" s="82">
+      <c r="C18" s="94"/>
+      <c r="D18" s="91">
         <v>0.8</v>
       </c>
-      <c r="E18" s="85"/>
-      <c r="F18" s="82">
+      <c r="E18" s="94"/>
+      <c r="F18" s="91">
         <v>0.95</v>
       </c>
-      <c r="G18" s="83"/>
+      <c r="G18" s="92"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="B19" s="84">
+      <c r="A19" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="93">
         <v>1.25</v>
       </c>
-      <c r="C19" s="85"/>
-      <c r="D19" s="82">
+      <c r="C19" s="94"/>
+      <c r="D19" s="91">
         <v>1.35</v>
       </c>
-      <c r="E19" s="85"/>
-      <c r="F19" s="82">
+      <c r="E19" s="94"/>
+      <c r="F19" s="91">
         <v>1.75</v>
       </c>
-      <c r="G19" s="83"/>
+      <c r="G19" s="92"/>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A20" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="80">
+      <c r="A20" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="89">
         <v>3</v>
       </c>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="81"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="90"/>
     </row>
     <row r="21" spans="1:7" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="F13:G14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
@@ -6582,6 +6925,18 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/作成リスト.xlsx
+++ b/作成リスト.xlsx
@@ -1824,6 +1824,30 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1833,9 +1857,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1854,27 +1875,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1893,6 +1893,42 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1906,42 +1942,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2559,12 +2559,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="61"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="68"/>
       <c r="E1" s="18" t="s">
         <v>156</v>
       </c>
@@ -2585,10 +2585,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="19" t="s">
         <v>157</v>
       </c>
@@ -2612,14 +2612,14 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="43" t="str">
         <f>CONCATENATE($E$2,M3)</f>
         <v>Hammer_Neutral</v>
@@ -2644,7 +2644,7 @@
       <c r="B4" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="58"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="45"/>
       <c r="E4" s="43" t="str">
         <f t="shared" ref="E4:E41" si="0">CONCATENATE($E$2,M4)</f>
@@ -2670,7 +2670,7 @@
       <c r="B5" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="45"/>
       <c r="E5" s="43" t="str">
         <f t="shared" si="0"/>
@@ -2696,7 +2696,7 @@
       <c r="B6" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="45"/>
       <c r="E6" s="43" t="str">
         <f t="shared" si="0"/>
@@ -2719,11 +2719,11 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="53"/>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="71"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="61"/>
       <c r="E7" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Squat</v>
@@ -2745,11 +2745,11 @@
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="53"/>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="67"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Squat_Guard</v>
@@ -2771,11 +2771,11 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="53"/>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="67"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
       <c r="E9" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Guard</v>
@@ -2797,11 +2797,11 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="53"/>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Guard_Break</v>
@@ -2823,11 +2823,11 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="53"/>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="67"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
       <c r="E11" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Damage</v>
@@ -2849,11 +2849,11 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="53"/>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
       <c r="E12" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Damage_Meteo</v>
@@ -2875,11 +2875,11 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="53"/>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="67"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
       <c r="E13" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Burst</v>
@@ -2901,11 +2901,11 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="53"/>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="67"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
       <c r="E14" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Fly</v>
@@ -2927,11 +2927,11 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="53"/>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="67"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
       <c r="E15" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Fly_Move</v>
@@ -2953,11 +2953,11 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="53"/>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="67"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Fly_Guard</v>
@@ -2979,11 +2979,11 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="53"/>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="67"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_UnStamina</v>
@@ -3005,11 +3005,11 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="53"/>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
       <c r="E18" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Down</v>
@@ -3031,11 +3031,11 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="53"/>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="67"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Stun</v>
@@ -3057,11 +3057,11 @@
     </row>
     <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="53"/>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="67"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
       <c r="E20" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Wake_Up</v>
@@ -3083,11 +3083,11 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="53"/>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="70"/>
-      <c r="D21" s="71"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Revival</v>
@@ -3112,10 +3112,10 @@
       <c r="B22" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="67"/>
+      <c r="D22" s="58"/>
       <c r="E22" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Rolling</v>
@@ -3138,10 +3138,10 @@
     <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="53"/>
       <c r="B23" s="53"/>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="67"/>
+      <c r="D23" s="58"/>
       <c r="E23" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Side_Step_L</v>
@@ -3164,10 +3164,10 @@
     <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="53"/>
       <c r="B24" s="53"/>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="67"/>
+      <c r="D24" s="58"/>
       <c r="E24" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Side_Step_R</v>
@@ -3190,10 +3190,10 @@
     <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="53"/>
       <c r="B25" s="54"/>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="67"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Back_Step</v>
@@ -3596,7 +3596,7 @@
       <c r="B40" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="58"/>
+      <c r="C40" s="55"/>
       <c r="D40" s="45"/>
       <c r="E40" s="43" t="str">
         <f t="shared" si="0"/>
@@ -3622,7 +3622,7 @@
       <c r="B41" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="58"/>
+      <c r="C41" s="55"/>
       <c r="D41" s="45"/>
       <c r="E41" s="43" t="str">
         <f t="shared" si="0"/>
@@ -3696,21 +3696,10 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A1:D2"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="A3:A39"/>
@@ -3727,10 +3716,21 @@
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3763,12 +3763,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="61"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="68"/>
       <c r="E1" s="18" t="s">
         <v>163</v>
       </c>
@@ -3789,10 +3789,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="19" t="s">
         <v>162</v>
       </c>
@@ -3816,14 +3816,14 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="10" t="str">
         <f>CONCATENATE($E$2,K3)</f>
         <v>TwinSword_Neutral</v>
@@ -3848,7 +3848,7 @@
       <c r="B4" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="58"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="45"/>
       <c r="E4" s="43" t="str">
         <f t="shared" ref="E4:E41" si="0">CONCATENATE($E$2,K4)</f>
@@ -3874,7 +3874,7 @@
       <c r="B5" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="45"/>
       <c r="E5" s="43" t="str">
         <f t="shared" si="0"/>
@@ -3900,7 +3900,7 @@
       <c r="B6" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="45"/>
       <c r="E6" s="43" t="str">
         <f t="shared" si="0"/>
@@ -3923,11 +3923,11 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="53"/>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="71"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="61"/>
       <c r="E7" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Squat</v>
@@ -3949,11 +3949,11 @@
     </row>
     <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="53"/>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="67"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Squat_Guard</v>
@@ -3975,11 +3975,11 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="53"/>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="67"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
       <c r="E9" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Guard</v>
@@ -4001,11 +4001,11 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="53"/>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Guard_Break</v>
@@ -4027,11 +4027,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="53"/>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="67"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
       <c r="E11" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Damage</v>
@@ -4053,11 +4053,11 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="53"/>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
       <c r="E12" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Damage_Meteo</v>
@@ -4079,11 +4079,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="53"/>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="67"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
       <c r="E13" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Burst</v>
@@ -4105,11 +4105,11 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="53"/>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="67"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
       <c r="E14" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Fly</v>
@@ -4131,11 +4131,11 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="53"/>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="67"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
       <c r="E15" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Fly_Move</v>
@@ -4157,11 +4157,11 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="53"/>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="67"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Fly_Guard</v>
@@ -4183,11 +4183,11 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="53"/>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="67"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_UnStamina</v>
@@ -4209,11 +4209,11 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="53"/>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
       <c r="E18" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Down</v>
@@ -4235,11 +4235,11 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="53"/>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="67"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Stun</v>
@@ -4261,11 +4261,11 @@
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="53"/>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="67"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
       <c r="E20" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Wake_Up</v>
@@ -4287,11 +4287,11 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="53"/>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="70"/>
-      <c r="D21" s="71"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Revival</v>
@@ -4316,10 +4316,10 @@
       <c r="B22" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="67"/>
+      <c r="D22" s="58"/>
       <c r="E22" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Rolling</v>
@@ -4342,10 +4342,10 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="53"/>
       <c r="B23" s="53"/>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="67"/>
+      <c r="D23" s="58"/>
       <c r="E23" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Side_Step_L</v>
@@ -4368,10 +4368,10 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="53"/>
       <c r="B24" s="53"/>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="67"/>
+      <c r="D24" s="58"/>
       <c r="E24" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Side_Step_R</v>
@@ -4394,10 +4394,10 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="53"/>
       <c r="B25" s="54"/>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="67"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Back_Step</v>
@@ -4800,7 +4800,7 @@
       <c r="B40" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="58"/>
+      <c r="C40" s="55"/>
       <c r="D40" s="45"/>
       <c r="E40" s="43" t="str">
         <f t="shared" si="0"/>
@@ -4826,7 +4826,7 @@
       <c r="B41" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="58"/>
+      <c r="C41" s="55"/>
       <c r="D41" s="45"/>
       <c r="E41" s="43" t="str">
         <f t="shared" si="0"/>
@@ -4900,25 +4900,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B26:B39"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="A3:A39"/>
@@ -4935,6 +4916,25 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B26:B39"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C39:D39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4947,7 +4947,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4956,11 +4956,11 @@
     <col min="2" max="2" width="8.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.58203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.9140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.58203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.58203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="7.9140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="33.58203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.58203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="7.9140625" style="1" customWidth="1"/>
     <col min="11" max="12" width="8.6640625" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="0" style="1" hidden="1" customWidth="1"/>
@@ -4968,12 +4968,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="61"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="68"/>
       <c r="E1" s="18" t="s">
         <v>132</v>
       </c>
@@ -4994,10 +4994,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="19" t="s">
         <v>134</v>
       </c>
@@ -5021,14 +5021,14 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="10" t="str">
         <f>CONCATENATE($E$2,L3)</f>
         <v>Sword_Neutral</v>
@@ -5054,7 +5054,7 @@
       <c r="B4" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="58"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="45"/>
       <c r="E4" s="43" t="str">
         <f t="shared" ref="E4:E41" si="0">CONCATENATE($E$2,L4)</f>
@@ -5081,7 +5081,7 @@
       <c r="B5" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="45"/>
       <c r="E5" s="43" t="str">
         <f t="shared" si="0"/>
@@ -5108,7 +5108,7 @@
       <c r="B6" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="45"/>
       <c r="E6" s="43" t="str">
         <f t="shared" si="0"/>
@@ -5132,11 +5132,11 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="53"/>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="71"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="61"/>
       <c r="E7" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Squat</v>
@@ -5159,11 +5159,11 @@
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="53"/>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="67"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Squat_Guard</v>
@@ -5186,11 +5186,11 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="53"/>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="67"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
       <c r="E9" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Guard</v>
@@ -5213,11 +5213,11 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="53"/>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Guard_Break</v>
@@ -5240,11 +5240,11 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="53"/>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="67"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
       <c r="E11" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Damage</v>
@@ -5267,11 +5267,11 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="53"/>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
       <c r="E12" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Damage_Meteo</v>
@@ -5294,11 +5294,11 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="53"/>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="67"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
       <c r="E13" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Burst</v>
@@ -5321,11 +5321,11 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="53"/>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="67"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
       <c r="E14" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Fly</v>
@@ -5348,11 +5348,11 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="53"/>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="67"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
       <c r="E15" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Fly_Move</v>
@@ -5375,11 +5375,11 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="53"/>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="67"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Fly_Guard</v>
@@ -5402,11 +5402,11 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="53"/>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="67"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_UnStamina</v>
@@ -5429,11 +5429,11 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="53"/>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
       <c r="E18" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Down</v>
@@ -5456,11 +5456,11 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="53"/>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="67"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Stun</v>
@@ -5483,11 +5483,11 @@
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="53"/>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="67"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
       <c r="E20" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Wake_Up</v>
@@ -5510,11 +5510,11 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="53"/>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="70"/>
-      <c r="D21" s="71"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Revival</v>
@@ -5540,10 +5540,10 @@
       <c r="B22" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="67"/>
+      <c r="D22" s="58"/>
       <c r="E22" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Rolling</v>
@@ -5567,10 +5567,10 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="53"/>
       <c r="B23" s="53"/>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="67"/>
+      <c r="D23" s="58"/>
       <c r="E23" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Side_Step_L</v>
@@ -5594,10 +5594,10 @@
     <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="53"/>
       <c r="B24" s="53"/>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="67"/>
+      <c r="D24" s="58"/>
       <c r="E24" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Side_Step_R</v>
@@ -5621,10 +5621,10 @@
     <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="53"/>
       <c r="B25" s="54"/>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="67"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Back_Step</v>
@@ -6042,7 +6042,7 @@
       <c r="B40" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="58"/>
+      <c r="C40" s="55"/>
       <c r="D40" s="45"/>
       <c r="E40" s="43" t="str">
         <f t="shared" si="0"/>
@@ -6069,7 +6069,7 @@
       <c r="B41" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="58"/>
+      <c r="C41" s="55"/>
       <c r="D41" s="45"/>
       <c r="E41" s="43" t="str">
         <f t="shared" si="0"/>
@@ -6148,25 +6148,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="B26:B39"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="A3:A39"/>
     <mergeCell ref="B3:D3"/>
@@ -6183,6 +6164,25 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B26:B39"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6437,29 +6437,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="78"/>
-      <c r="B1" s="81" t="s">
+      <c r="A1" s="90"/>
+      <c r="B1" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80" t="s">
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80" t="s">
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
     </row>
     <row r="2" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="79"/>
-      <c r="B2" s="82"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="94"/>
       <c r="C2" s="27" t="s">
         <v>3</v>
       </c>
@@ -6787,131 +6787,143 @@
     </row>
     <row r="12" spans="1:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="13" spans="1:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="83"/>
-      <c r="B13" s="83" t="s">
+      <c r="A13" s="84"/>
+      <c r="B13" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83" t="s">
+      <c r="C13" s="84"/>
+      <c r="D13" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83" t="s">
+      <c r="E13" s="84"/>
+      <c r="F13" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="G13" s="83"/>
+      <c r="G13" s="84"/>
     </row>
     <row r="14" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="84"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
     </row>
     <row r="15" spans="1:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="B15" s="85">
+      <c r="B15" s="86">
         <v>1</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="87">
+      <c r="C15" s="87"/>
+      <c r="D15" s="88">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E15" s="86"/>
-      <c r="F15" s="87">
+      <c r="E15" s="87"/>
+      <c r="F15" s="88">
         <v>1.3</v>
       </c>
-      <c r="G15" s="88"/>
+      <c r="G15" s="89"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="B16" s="93">
+      <c r="B16" s="82">
         <v>0.85</v>
       </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="91">
+      <c r="C16" s="83"/>
+      <c r="D16" s="80">
         <v>0.95</v>
       </c>
-      <c r="E16" s="94"/>
-      <c r="F16" s="91">
+      <c r="E16" s="83"/>
+      <c r="F16" s="80">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G16" s="92"/>
+      <c r="G16" s="81"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="94"/>
-      <c r="D17" s="91">
+      <c r="C17" s="83"/>
+      <c r="D17" s="80">
         <v>1.2</v>
       </c>
-      <c r="E17" s="94"/>
-      <c r="F17" s="91">
+      <c r="E17" s="83"/>
+      <c r="F17" s="80">
         <v>1.4</v>
       </c>
-      <c r="G17" s="92"/>
+      <c r="G17" s="81"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="B18" s="93">
+      <c r="B18" s="82">
         <v>0.75</v>
       </c>
-      <c r="C18" s="94"/>
-      <c r="D18" s="91">
+      <c r="C18" s="83"/>
+      <c r="D18" s="80">
         <v>0.8</v>
       </c>
-      <c r="E18" s="94"/>
-      <c r="F18" s="91">
+      <c r="E18" s="83"/>
+      <c r="F18" s="80">
         <v>0.95</v>
       </c>
-      <c r="G18" s="92"/>
+      <c r="G18" s="81"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="B19" s="93">
+      <c r="B19" s="82">
         <v>1.25</v>
       </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="91">
+      <c r="C19" s="83"/>
+      <c r="D19" s="80">
         <v>1.35</v>
       </c>
-      <c r="E19" s="94"/>
-      <c r="F19" s="91">
+      <c r="E19" s="83"/>
+      <c r="F19" s="80">
         <v>1.75</v>
       </c>
-      <c r="G19" s="92"/>
+      <c r="G19" s="81"/>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="89">
+      <c r="B20" s="78">
         <v>3</v>
       </c>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="90"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="79"/>
     </row>
     <row r="21" spans="1:7" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
@@ -6925,18 +6937,6 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="F13:G14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/作成リスト.xlsx
+++ b/作成リスト.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="モデル" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="167">
   <si>
     <t>モデル</t>
     <phoneticPr fontId="1"/>
@@ -955,6 +955,10 @@
   </si>
   <si>
     <t>Claw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1824,9 +1828,36 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1836,6 +1867,9 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1845,36 +1879,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1893,6 +1897,39 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1909,39 +1946,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2559,12 +2563,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="61"/>
       <c r="E1" s="18" t="s">
         <v>156</v>
       </c>
@@ -2585,10 +2589,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="71"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
       <c r="E2" s="19" t="s">
         <v>157</v>
       </c>
@@ -2612,14 +2616,14 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="43" t="str">
         <f>CONCATENATE($E$2,M3)</f>
         <v>Hammer_Neutral</v>
@@ -2644,7 +2648,7 @@
       <c r="B4" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="45"/>
       <c r="E4" s="43" t="str">
         <f t="shared" ref="E4:E41" si="0">CONCATENATE($E$2,M4)</f>
@@ -2670,7 +2674,7 @@
       <c r="B5" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="55"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="45"/>
       <c r="E5" s="43" t="str">
         <f t="shared" si="0"/>
@@ -2696,7 +2700,7 @@
       <c r="B6" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="55"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="45"/>
       <c r="E6" s="43" t="str">
         <f t="shared" si="0"/>
@@ -2719,11 +2723,11 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="53"/>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="71"/>
       <c r="E7" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Squat</v>
@@ -2745,11 +2749,11 @@
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="53"/>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Squat_Guard</v>
@@ -2771,11 +2775,11 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="53"/>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="67"/>
       <c r="E9" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Guard</v>
@@ -2797,11 +2801,11 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="53"/>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="67"/>
       <c r="E10" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Guard_Break</v>
@@ -2823,11 +2827,11 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="53"/>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
       <c r="E11" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Damage</v>
@@ -2849,11 +2853,11 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="53"/>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
       <c r="E12" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Damage_Meteo</v>
@@ -2875,11 +2879,11 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="53"/>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Burst</v>
@@ -2901,11 +2905,11 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="53"/>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="67"/>
       <c r="E14" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Fly</v>
@@ -2927,11 +2931,11 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="53"/>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="67"/>
       <c r="E15" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Fly_Move</v>
@@ -2953,11 +2957,11 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="53"/>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Fly_Guard</v>
@@ -2979,11 +2983,11 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="53"/>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="67"/>
       <c r="E17" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_UnStamina</v>
@@ -3005,11 +3009,11 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="53"/>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="67"/>
       <c r="E18" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Down</v>
@@ -3031,11 +3035,11 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="53"/>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="67"/>
       <c r="E19" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Stun</v>
@@ -3057,11 +3061,11 @@
     </row>
     <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="53"/>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="67"/>
       <c r="E20" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Wake_Up</v>
@@ -3083,11 +3087,11 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="53"/>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="61"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="71"/>
       <c r="E21" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Revival</v>
@@ -3112,10 +3116,10 @@
       <c r="B22" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="58"/>
+      <c r="D22" s="67"/>
       <c r="E22" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Rolling</v>
@@ -3138,10 +3142,10 @@
     <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="53"/>
       <c r="B23" s="53"/>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="58"/>
+      <c r="D23" s="67"/>
       <c r="E23" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Side_Step_L</v>
@@ -3164,10 +3168,10 @@
     <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="53"/>
       <c r="B24" s="53"/>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="58"/>
+      <c r="D24" s="67"/>
       <c r="E24" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Side_Step_R</v>
@@ -3190,10 +3194,10 @@
     <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="53"/>
       <c r="B25" s="54"/>
-      <c r="C25" s="56" t="s">
+      <c r="C25" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="58"/>
+      <c r="D25" s="67"/>
       <c r="E25" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Back_Step</v>
@@ -3596,7 +3600,7 @@
       <c r="B40" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="55"/>
+      <c r="C40" s="58"/>
       <c r="D40" s="45"/>
       <c r="E40" s="43" t="str">
         <f t="shared" si="0"/>
@@ -3622,7 +3626,7 @@
       <c r="B41" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="55"/>
+      <c r="C41" s="58"/>
       <c r="D41" s="45"/>
       <c r="E41" s="43" t="str">
         <f t="shared" si="0"/>
@@ -3696,11 +3700,21 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="A3:A39"/>
     <mergeCell ref="B26:B39"/>
@@ -3716,21 +3730,11 @@
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3742,8 +3746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3763,12 +3767,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="61"/>
       <c r="E1" s="18" t="s">
         <v>163</v>
       </c>
@@ -3789,16 +3793,16 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="71"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
       <c r="E2" s="19" t="s">
         <v>162</v>
       </c>
       <c r="F2" s="29" t="str">
         <f>CONCATENATE(COUNTIF(F3:F100,"〇"),"／",COUNTA(E3:E100))</f>
-        <v>0／39</v>
+        <v>2／39</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>165</v>
@@ -3816,19 +3820,21 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="10" t="str">
         <f>CONCATENATE($E$2,K3)</f>
         <v>TwinSword_Neutral</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="G3" s="10" t="str">
         <f>CONCATENATE($G$2,K3)</f>
         <v>Claw_Neutral</v>
@@ -3848,13 +3854,15 @@
       <c r="B4" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="45"/>
       <c r="E4" s="43" t="str">
         <f t="shared" ref="E4:E41" si="0">CONCATENATE($E$2,K4)</f>
         <v>TwinSword_Move</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="G4" s="43" t="str">
         <f t="shared" ref="G4:G41" si="1">CONCATENATE($G$2,K4)</f>
         <v>Claw_Move</v>
@@ -3874,7 +3882,7 @@
       <c r="B5" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="55"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="45"/>
       <c r="E5" s="43" t="str">
         <f t="shared" si="0"/>
@@ -3900,7 +3908,7 @@
       <c r="B6" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="55"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="45"/>
       <c r="E6" s="43" t="str">
         <f t="shared" si="0"/>
@@ -3923,11 +3931,11 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="53"/>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="71"/>
       <c r="E7" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Squat</v>
@@ -3949,11 +3957,11 @@
     </row>
     <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="53"/>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Squat_Guard</v>
@@ -3975,11 +3983,11 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="53"/>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="67"/>
       <c r="E9" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Guard</v>
@@ -4001,11 +4009,11 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="53"/>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="67"/>
       <c r="E10" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Guard_Break</v>
@@ -4027,11 +4035,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="53"/>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
       <c r="E11" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Damage</v>
@@ -4053,11 +4061,11 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="53"/>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
       <c r="E12" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Damage_Meteo</v>
@@ -4079,11 +4087,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="53"/>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Burst</v>
@@ -4105,11 +4113,11 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="53"/>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="67"/>
       <c r="E14" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Fly</v>
@@ -4131,11 +4139,11 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="53"/>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="67"/>
       <c r="E15" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Fly_Move</v>
@@ -4157,11 +4165,11 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="53"/>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Fly_Guard</v>
@@ -4183,11 +4191,11 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="53"/>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="67"/>
       <c r="E17" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_UnStamina</v>
@@ -4209,11 +4217,11 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="53"/>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="67"/>
       <c r="E18" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Down</v>
@@ -4235,11 +4243,11 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="53"/>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="67"/>
       <c r="E19" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Stun</v>
@@ -4261,11 +4269,11 @@
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="53"/>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="67"/>
       <c r="E20" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Wake_Up</v>
@@ -4287,11 +4295,11 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="53"/>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="61"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="71"/>
       <c r="E21" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Revival</v>
@@ -4316,10 +4324,10 @@
       <c r="B22" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="58"/>
+      <c r="D22" s="67"/>
       <c r="E22" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Rolling</v>
@@ -4342,10 +4350,10 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="53"/>
       <c r="B23" s="53"/>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="58"/>
+      <c r="D23" s="67"/>
       <c r="E23" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Side_Step_L</v>
@@ -4368,10 +4376,10 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="53"/>
       <c r="B24" s="53"/>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="58"/>
+      <c r="D24" s="67"/>
       <c r="E24" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Side_Step_R</v>
@@ -4394,10 +4402,10 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="53"/>
       <c r="B25" s="54"/>
-      <c r="C25" s="56" t="s">
+      <c r="C25" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="58"/>
+      <c r="D25" s="67"/>
       <c r="E25" s="43" t="str">
         <f t="shared" si="0"/>
         <v>TwinSword_Back_Step</v>
@@ -4800,7 +4808,7 @@
       <c r="B40" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="55"/>
+      <c r="C40" s="58"/>
       <c r="D40" s="45"/>
       <c r="E40" s="43" t="str">
         <f t="shared" si="0"/>
@@ -4826,7 +4834,7 @@
       <c r="B41" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="55"/>
+      <c r="C41" s="58"/>
       <c r="D41" s="45"/>
       <c r="E41" s="43" t="str">
         <f t="shared" si="0"/>
@@ -4900,6 +4908,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B26:B39"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="A3:A39"/>
@@ -4916,25 +4943,6 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B26:B39"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C39:D39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4946,7 +4954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
@@ -4968,12 +4976,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="61"/>
       <c r="E1" s="18" t="s">
         <v>132</v>
       </c>
@@ -4994,10 +5002,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="71"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
       <c r="E2" s="19" t="s">
         <v>134</v>
       </c>
@@ -5021,14 +5029,14 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="10" t="str">
         <f>CONCATENATE($E$2,L3)</f>
         <v>Sword_Neutral</v>
@@ -5054,7 +5062,7 @@
       <c r="B4" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="45"/>
       <c r="E4" s="43" t="str">
         <f t="shared" ref="E4:E41" si="0">CONCATENATE($E$2,L4)</f>
@@ -5081,7 +5089,7 @@
       <c r="B5" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="55"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="45"/>
       <c r="E5" s="43" t="str">
         <f t="shared" si="0"/>
@@ -5108,7 +5116,7 @@
       <c r="B6" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="55"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="45"/>
       <c r="E6" s="43" t="str">
         <f t="shared" si="0"/>
@@ -5132,11 +5140,11 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="53"/>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="71"/>
       <c r="E7" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Squat</v>
@@ -5159,11 +5167,11 @@
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="53"/>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Squat_Guard</v>
@@ -5186,11 +5194,11 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="53"/>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="67"/>
       <c r="E9" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Guard</v>
@@ -5213,11 +5221,11 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="53"/>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="67"/>
       <c r="E10" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Guard_Break</v>
@@ -5240,11 +5248,11 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="53"/>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
       <c r="E11" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Damage</v>
@@ -5267,11 +5275,11 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="53"/>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
       <c r="E12" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Damage_Meteo</v>
@@ -5294,11 +5302,11 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="53"/>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Burst</v>
@@ -5321,11 +5329,11 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="53"/>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="67"/>
       <c r="E14" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Fly</v>
@@ -5348,11 +5356,11 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="53"/>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="67"/>
       <c r="E15" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Fly_Move</v>
@@ -5375,11 +5383,11 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="53"/>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Fly_Guard</v>
@@ -5402,11 +5410,11 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="53"/>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="67"/>
       <c r="E17" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_UnStamina</v>
@@ -5429,11 +5437,11 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="53"/>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="67"/>
       <c r="E18" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Down</v>
@@ -5456,11 +5464,11 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="53"/>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="67"/>
       <c r="E19" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Stun</v>
@@ -5483,11 +5491,11 @@
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="53"/>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="67"/>
       <c r="E20" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Wake_Up</v>
@@ -5510,11 +5518,11 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="53"/>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="61"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="71"/>
       <c r="E21" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Revival</v>
@@ -5540,10 +5548,10 @@
       <c r="B22" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="58"/>
+      <c r="D22" s="67"/>
       <c r="E22" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Rolling</v>
@@ -5567,10 +5575,10 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="53"/>
       <c r="B23" s="53"/>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="58"/>
+      <c r="D23" s="67"/>
       <c r="E23" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Side_Step_L</v>
@@ -5594,10 +5602,10 @@
     <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="53"/>
       <c r="B24" s="53"/>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="58"/>
+      <c r="D24" s="67"/>
       <c r="E24" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Side_Step_R</v>
@@ -5621,10 +5629,10 @@
     <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="53"/>
       <c r="B25" s="54"/>
-      <c r="C25" s="56" t="s">
+      <c r="C25" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="58"/>
+      <c r="D25" s="67"/>
       <c r="E25" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Back_Step</v>
@@ -6042,7 +6050,7 @@
       <c r="B40" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="55"/>
+      <c r="C40" s="58"/>
       <c r="D40" s="45"/>
       <c r="E40" s="43" t="str">
         <f t="shared" si="0"/>
@@ -6069,7 +6077,7 @@
       <c r="B41" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="55"/>
+      <c r="C41" s="58"/>
       <c r="D41" s="45"/>
       <c r="E41" s="43" t="str">
         <f t="shared" si="0"/>
@@ -6148,6 +6156,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B26:B39"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="A3:A39"/>
     <mergeCell ref="B3:D3"/>
@@ -6164,25 +6191,6 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="B26:B39"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6437,29 +6445,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="90"/>
-      <c r="B1" s="93" t="s">
+      <c r="A1" s="78"/>
+      <c r="B1" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92" t="s">
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92" t="s">
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
     </row>
     <row r="2" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="91"/>
-      <c r="B2" s="94"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="27" t="s">
         <v>3</v>
       </c>
@@ -6787,143 +6795,131 @@
     </row>
     <row r="12" spans="1:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="13" spans="1:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="84"/>
-      <c r="B13" s="84" t="s">
+      <c r="A13" s="83"/>
+      <c r="B13" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84" t="s">
+      <c r="C13" s="83"/>
+      <c r="D13" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84" t="s">
+      <c r="E13" s="83"/>
+      <c r="F13" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="G13" s="84"/>
+      <c r="G13" s="83"/>
     </row>
     <row r="14" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="85"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
     </row>
     <row r="15" spans="1:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="B15" s="86">
+      <c r="B15" s="85">
         <v>1</v>
       </c>
-      <c r="C15" s="87"/>
-      <c r="D15" s="88">
+      <c r="C15" s="86"/>
+      <c r="D15" s="87">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E15" s="87"/>
-      <c r="F15" s="88">
+      <c r="E15" s="86"/>
+      <c r="F15" s="87">
         <v>1.3</v>
       </c>
-      <c r="G15" s="89"/>
+      <c r="G15" s="88"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="B16" s="82">
+      <c r="B16" s="93">
         <v>0.85</v>
       </c>
-      <c r="C16" s="83"/>
-      <c r="D16" s="80">
+      <c r="C16" s="94"/>
+      <c r="D16" s="91">
         <v>0.95</v>
       </c>
-      <c r="E16" s="83"/>
-      <c r="F16" s="80">
+      <c r="E16" s="94"/>
+      <c r="F16" s="91">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G16" s="81"/>
+      <c r="G16" s="92"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="93" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="80">
+      <c r="C17" s="94"/>
+      <c r="D17" s="91">
         <v>1.2</v>
       </c>
-      <c r="E17" s="83"/>
-      <c r="F17" s="80">
+      <c r="E17" s="94"/>
+      <c r="F17" s="91">
         <v>1.4</v>
       </c>
-      <c r="G17" s="81"/>
+      <c r="G17" s="92"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="B18" s="82">
+      <c r="B18" s="93">
         <v>0.75</v>
       </c>
-      <c r="C18" s="83"/>
-      <c r="D18" s="80">
+      <c r="C18" s="94"/>
+      <c r="D18" s="91">
         <v>0.8</v>
       </c>
-      <c r="E18" s="83"/>
-      <c r="F18" s="80">
+      <c r="E18" s="94"/>
+      <c r="F18" s="91">
         <v>0.95</v>
       </c>
-      <c r="G18" s="81"/>
+      <c r="G18" s="92"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="B19" s="82">
+      <c r="B19" s="93">
         <v>1.25</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="80">
+      <c r="C19" s="94"/>
+      <c r="D19" s="91">
         <v>1.35</v>
       </c>
-      <c r="E19" s="83"/>
-      <c r="F19" s="80">
+      <c r="E19" s="94"/>
+      <c r="F19" s="91">
         <v>1.75</v>
       </c>
-      <c r="G19" s="81"/>
+      <c r="G19" s="92"/>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="78">
+      <c r="B20" s="89">
         <v>3</v>
       </c>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="79"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="90"/>
     </row>
     <row r="21" spans="1:7" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="F13:G14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
@@ -6937,6 +6933,18 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
